--- a/value_investing_sp500_tickers.xlsx
+++ b/value_investing_sp500_tickers.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Repos/value-investing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{198CE514-4646-A243-AFEE-7A635854FCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C406D-0B6E-3349-A5FC-B19EAE84DC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{4DD50FDA-CB01-9D42-8226-096A714526B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4496,13 +4496,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4820,14 +4819,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68C13F-9671-6C49-A8ED-73C1D48014CF}">
   <dimension ref="A1:I503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="L353" sqref="L353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4852,12 +4851,12 @@
         <v>1902</v>
       </c>
       <c r="I1" t="str">
-        <f>CONCATENATE("'",A1,"'")</f>
-        <v>'MMM'</v>
+        <f>CONCATENATE("'",A1,"'",",")</f>
+        <v>'MMM',</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4882,12 +4881,12 @@
         <v>1916</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I65" si="0">CONCATENATE("'",A2,"'")</f>
-        <v>'AOS'</v>
+        <f t="shared" ref="I2:I65" si="0">CONCATENATE("'",A2,"'",",")</f>
+        <v>'AOS',</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4913,11 +4912,11 @@
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
-        <v>'ABT'</v>
+        <v>'ABT',</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4943,11 +4942,11 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>'ABBV'</v>
+        <v>'ABBV',</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4973,11 +4972,11 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>'ACN'</v>
+        <v>'ACN',</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5003,11 +5002,11 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>'ATVI'</v>
+        <v>'ATVI',</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5033,11 +5032,11 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>'ADM'</v>
+        <v>'ADM',</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5063,11 +5062,11 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>'ADBE'</v>
+        <v>'ADBE',</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5093,11 +5092,11 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>'ADP'</v>
+        <v>'ADP',</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5123,11 +5122,11 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>'AAP'</v>
+        <v>'AAP',</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5153,11 +5152,11 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>'AES'</v>
+        <v>'AES',</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5183,11 +5182,11 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>'AFL'</v>
+        <v>'AFL',</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5213,11 +5212,11 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>'A'</v>
+        <v>'A',</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5243,11 +5242,11 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>'APD'</v>
+        <v>'APD',</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5273,11 +5272,11 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>'AKAM'</v>
+        <v>'AKAM',</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5303,11 +5302,11 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>'ALK'</v>
+        <v>'ALK',</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5333,11 +5332,11 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>'ALB'</v>
+        <v>'ALB',</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5363,11 +5362,11 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>'ARE'</v>
+        <v>'ARE',</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5393,11 +5392,11 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>'ALGN'</v>
+        <v>'ALGN',</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5423,11 +5422,11 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>'ALLE'</v>
+        <v>'ALLE',</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5453,11 +5452,11 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>'LNT'</v>
+        <v>'LNT',</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5483,11 +5482,11 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>'ALL'</v>
+        <v>'ALL',</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5513,11 +5512,11 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>'GOOGL'</v>
+        <v>'GOOGL',</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5543,11 +5542,11 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>'GOOG'</v>
+        <v>'GOOG',</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5573,11 +5572,11 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>'MO'</v>
+        <v>'MO',</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5603,11 +5602,11 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>'AMZN'</v>
+        <v>'AMZN',</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5633,11 +5632,11 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>'AMCR'</v>
+        <v>'AMCR',</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>113</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5663,11 +5662,11 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>'AMD'</v>
+        <v>'AMD',</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>115</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5693,11 +5692,11 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>'AEE'</v>
+        <v>'AEE',</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>119</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5723,11 +5722,11 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>'AAL'</v>
+        <v>'AAL',</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5753,11 +5752,11 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>'AEP'</v>
+        <v>'AEP',</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>125</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5783,11 +5782,11 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>'AXP'</v>
+        <v>'AXP',</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>128</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -5813,11 +5812,11 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>'AIG'</v>
+        <v>'AIG',</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -5843,11 +5842,11 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>'AMT'</v>
+        <v>'AMT',</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5873,11 +5872,11 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>'AWK'</v>
+        <v>'AWK',</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>138</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -5903,11 +5902,11 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>'AMP'</v>
+        <v>'AMP',</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5933,11 +5932,11 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>'ABC'</v>
+        <v>'ABC',</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>146</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -5963,11 +5962,11 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>'AME'</v>
+        <v>'AME',</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5993,11 +5992,11 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>'AMGN'</v>
+        <v>'AMGN',</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>154</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -6023,11 +6022,11 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>'APH'</v>
+        <v>'APH',</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>158</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -6053,11 +6052,11 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>'ADI'</v>
+        <v>'ADI',</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>161</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6083,11 +6082,11 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>'ANSS'</v>
+        <v>'ANSS',</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>164</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -6113,11 +6112,11 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>'AON'</v>
+        <v>'AON',</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>169</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -6143,11 +6142,11 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>'APA'</v>
+        <v>'APA',</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>174</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -6173,11 +6172,11 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>'AAPL'</v>
+        <v>'AAPL',</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>178</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -6203,11 +6202,11 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>'AMAT'</v>
+        <v>'AMAT',</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>181</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -6233,11 +6232,11 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>'APTV'</v>
+        <v>'APTV',</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>184</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -6263,11 +6262,11 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>'ACGL'</v>
+        <v>'ACGL',</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>188</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -6293,11 +6292,11 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>'ANET'</v>
+        <v>'ANET',</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -6323,11 +6322,11 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>'AJG'</v>
+        <v>'AJG',</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>194</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -6353,11 +6352,11 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>'AIZ'</v>
+        <v>'AIZ',</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" t="s">
         <v>197</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -6383,11 +6382,11 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>'T'</v>
+        <v>'T',</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" t="s">
         <v>202</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -6413,11 +6412,11 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>'ATO'</v>
+        <v>'ATO',</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" t="s">
         <v>205</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -6443,11 +6442,11 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>'ADSK'</v>
+        <v>'ADSK',</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" t="s">
         <v>208</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -6473,11 +6472,11 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>'AZO'</v>
+        <v>'AZO',</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" t="s">
         <v>212</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -6503,11 +6502,11 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>'AVB'</v>
+        <v>'AVB',</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" t="s">
         <v>215</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -6533,11 +6532,11 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>'AVY'</v>
+        <v>'AVY',</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" t="s">
         <v>218</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -6563,11 +6562,11 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>'BKR'</v>
+        <v>'BKR',</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" t="s">
         <v>221</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -6593,11 +6592,11 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>'BALL'</v>
+        <v>'BALL',</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="A60" t="s">
         <v>225</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -6623,11 +6622,11 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>'BAC'</v>
+        <v>'BAC',</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>229</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -6653,11 +6652,11 @@
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>'BBWI'</v>
+        <v>'BBWI',</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" t="s">
         <v>231</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -6683,11 +6682,11 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>'BAX'</v>
+        <v>'BAX',</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" t="s">
         <v>234</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -6713,11 +6712,11 @@
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>'BDX'</v>
+        <v>'BDX',</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" t="s">
         <v>237</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -6743,11 +6742,11 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>'WRB'</v>
+        <v>'WRB',</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="A65" t="s">
         <v>240</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -6773,11 +6772,11 @@
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>'BRK.B'</v>
+        <v>'BRK.B',</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" t="s">
         <v>244</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -6802,12 +6801,12 @@
         <v>1966</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" ref="I66:I129" si="1">CONCATENATE("'",A66,"'")</f>
-        <v>'BBY'</v>
+        <f t="shared" ref="I66:I129" si="1">CONCATENATE("'",A66,"'",",")</f>
+        <v>'BBY',</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+      <c r="A67" t="s">
         <v>248</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -6833,11 +6832,11 @@
       </c>
       <c r="I67" t="str">
         <f t="shared" si="1"/>
-        <v>'BIO'</v>
+        <v>'BIO',</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" t="s">
         <v>252</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -6863,11 +6862,11 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
-        <v>'TECH'</v>
+        <v>'TECH',</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" t="s">
         <v>254</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -6893,11 +6892,11 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>'BIIB'</v>
+        <v>'BIIB',</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" t="s">
         <v>256</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -6923,11 +6922,11 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="1"/>
-        <v>'BLK'</v>
+        <v>'BLK',</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" t="s">
         <v>258</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -6953,11 +6952,11 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" si="1"/>
-        <v>'BK'</v>
+        <v>'BK',</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="A72" t="s">
         <v>260</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -6983,11 +6982,11 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" si="1"/>
-        <v>'BA'</v>
+        <v>'BA',</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+      <c r="A73" t="s">
         <v>263</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -7013,11 +7012,11 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" si="1"/>
-        <v>'BKNG'</v>
+        <v>'BKNG',</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" t="s">
         <v>266</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -7043,11 +7042,11 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" si="1"/>
-        <v>'BWA'</v>
+        <v>'BWA',</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+      <c r="A75" t="s">
         <v>269</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -7073,11 +7072,11 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" si="1"/>
-        <v>'BXP'</v>
+        <v>'BXP',</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+      <c r="A76" t="s">
         <v>271</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -7103,11 +7102,11 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>
-        <v>'BSX'</v>
+        <v>'BSX',</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+      <c r="A77" t="s">
         <v>274</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -7133,11 +7132,11 @@
       </c>
       <c r="I77" t="str">
         <f t="shared" si="1"/>
-        <v>'BMY'</v>
+        <v>'BMY',</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+      <c r="A78" t="s">
         <v>277</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -7163,11 +7162,11 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" si="1"/>
-        <v>'AVGO'</v>
+        <v>'AVGO',</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+      <c r="A79" t="s">
         <v>279</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -7193,11 +7192,11 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="1"/>
-        <v>'BR'</v>
+        <v>'BR',</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
+      <c r="A80" t="s">
         <v>283</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -7223,11 +7222,11 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" si="1"/>
-        <v>'BRO'</v>
+        <v>'BRO',</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+      <c r="A81" t="s">
         <v>286</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -7253,11 +7252,11 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" si="1"/>
-        <v>'BF.B'</v>
+        <v>'BF.B',</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+      <c r="A82" t="s">
         <v>290</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -7283,11 +7282,11 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="1"/>
-        <v>'BG'</v>
+        <v>'BG',</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+      <c r="A83" t="s">
         <v>293</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -7313,11 +7312,11 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="1"/>
-        <v>'CHRW'</v>
+        <v>'CHRW',</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="A84" t="s">
         <v>297</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -7343,11 +7342,11 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="1"/>
-        <v>'CDNS'</v>
+        <v>'CDNS',</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="A85" t="s">
         <v>299</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -7373,11 +7372,11 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" si="1"/>
-        <v>'CZR'</v>
+        <v>'CZR',</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+      <c r="A86" t="s">
         <v>303</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -7403,11 +7402,11 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" si="1"/>
-        <v>'CPT'</v>
+        <v>'CPT',</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
+      <c r="A87" t="s">
         <v>305</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -7433,11 +7432,11 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" si="1"/>
-        <v>'CPB'</v>
+        <v>'CPB',</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+      <c r="A88" t="s">
         <v>308</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -7463,11 +7462,11 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" si="1"/>
-        <v>'COF'</v>
+        <v>'COF',</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+      <c r="A89" t="s">
         <v>311</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -7493,11 +7492,11 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="1"/>
-        <v>'CAH'</v>
+        <v>'CAH',</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+      <c r="A90" t="s">
         <v>314</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -7523,11 +7522,11 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" si="1"/>
-        <v>'KMX'</v>
+        <v>'KMX',</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+      <c r="A91" t="s">
         <v>316</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -7553,11 +7552,11 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" si="1"/>
-        <v>'CCL'</v>
+        <v>'CCL',</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
+      <c r="A92" t="s">
         <v>320</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -7583,11 +7582,11 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" si="1"/>
-        <v>'CARR'</v>
+        <v>'CARR',</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+      <c r="A93" t="s">
         <v>324</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -7613,11 +7612,11 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" si="1"/>
-        <v>'CTLT'</v>
+        <v>'CTLT',</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+      <c r="A94" t="s">
         <v>327</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -7643,11 +7642,11 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" si="1"/>
-        <v>'CAT'</v>
+        <v>'CAT',</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
+      <c r="A95" t="s">
         <v>331</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -7673,11 +7672,11 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" si="1"/>
-        <v>'CBOE'</v>
+        <v>'CBOE',</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+      <c r="A96" t="s">
         <v>334</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -7703,11 +7702,11 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" si="1"/>
-        <v>'CBRE'</v>
+        <v>'CBRE',</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
+      <c r="A97" t="s">
         <v>337</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -7733,11 +7732,11 @@
       </c>
       <c r="I97" t="str">
         <f t="shared" si="1"/>
-        <v>'CDW'</v>
+        <v>'CDW',</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
+      <c r="A98" t="s">
         <v>340</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -7763,11 +7762,11 @@
       </c>
       <c r="I98" t="str">
         <f t="shared" si="1"/>
-        <v>'CE'</v>
+        <v>'CE',</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
+      <c r="A99" t="s">
         <v>342</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -7793,11 +7792,11 @@
       </c>
       <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>'CNC'</v>
+        <v>'CNC',</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
+      <c r="A100" t="s">
         <v>345</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -7823,11 +7822,11 @@
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>'CNP'</v>
+        <v>'CNP',</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
+      <c r="A101" t="s">
         <v>347</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -7853,11 +7852,11 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>'CDAY'</v>
+        <v>'CDAY',</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
+      <c r="A102" t="s">
         <v>349</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -7883,11 +7882,11 @@
       </c>
       <c r="I102" t="str">
         <f t="shared" si="1"/>
-        <v>'CF'</v>
+        <v>'CF',</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
+      <c r="A103" t="s">
         <v>352</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -7913,11 +7912,11 @@
       </c>
       <c r="I103" t="str">
         <f t="shared" si="1"/>
-        <v>'CRL'</v>
+        <v>'CRL',</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
+      <c r="A104" t="s">
         <v>354</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -7943,11 +7942,11 @@
       </c>
       <c r="I104" t="str">
         <f t="shared" si="1"/>
-        <v>'SCHW'</v>
+        <v>'SCHW',</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
+      <c r="A105" t="s">
         <v>358</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -7973,11 +7972,11 @@
       </c>
       <c r="I105" t="str">
         <f t="shared" si="1"/>
-        <v>'CHTR'</v>
+        <v>'CHTR',</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
+      <c r="A106" t="s">
         <v>362</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -8003,11 +8002,11 @@
       </c>
       <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>'CVX'</v>
+        <v>'CVX',</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
+      <c r="A107" t="s">
         <v>366</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -8033,11 +8032,11 @@
       </c>
       <c r="I107" t="str">
         <f t="shared" si="1"/>
-        <v>'CMG'</v>
+        <v>'CMG',</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
+      <c r="A108" t="s">
         <v>370</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -8063,11 +8062,11 @@
       </c>
       <c r="I108" t="str">
         <f t="shared" si="1"/>
-        <v>'CB'</v>
+        <v>'CB',</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
+      <c r="A109" t="s">
         <v>373</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -8093,11 +8092,11 @@
       </c>
       <c r="I109" t="str">
         <f t="shared" si="1"/>
-        <v>'CHD'</v>
+        <v>'CHD',</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
+      <c r="A110" t="s">
         <v>377</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -8123,11 +8122,11 @@
       </c>
       <c r="I110" t="str">
         <f t="shared" si="1"/>
-        <v>'CI'</v>
+        <v>'CI',</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
+      <c r="A111" t="s">
         <v>380</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -8153,11 +8152,11 @@
       </c>
       <c r="I111" t="str">
         <f t="shared" si="1"/>
-        <v>'CINF'</v>
+        <v>'CINF',</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
+      <c r="A112" t="s">
         <v>383</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -8183,11 +8182,11 @@
       </c>
       <c r="I112" t="str">
         <f t="shared" si="1"/>
-        <v>'CTAS'</v>
+        <v>'CTAS',</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
+      <c r="A113" t="s">
         <v>387</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -8213,11 +8212,11 @@
       </c>
       <c r="I113" t="str">
         <f t="shared" si="1"/>
-        <v>'CSCO'</v>
+        <v>'CSCO',</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
+      <c r="A114" t="s">
         <v>389</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -8243,11 +8242,11 @@
       </c>
       <c r="I114" t="str">
         <f t="shared" si="1"/>
-        <v>'C'</v>
+        <v>'C',</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
+      <c r="A115" t="s">
         <v>391</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -8273,11 +8272,11 @@
       </c>
       <c r="I115" t="str">
         <f t="shared" si="1"/>
-        <v>'CFG'</v>
+        <v>'CFG',</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
+      <c r="A116" t="s">
         <v>395</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -8303,11 +8302,11 @@
       </c>
       <c r="I116" t="str">
         <f t="shared" si="1"/>
-        <v>'CLX'</v>
+        <v>'CLX',</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
+      <c r="A117" t="s">
         <v>398</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -8333,11 +8332,11 @@
       </c>
       <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>'CME'</v>
+        <v>'CME',</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
+      <c r="A118" t="s">
         <v>400</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -8363,11 +8362,11 @@
       </c>
       <c r="I118" t="str">
         <f t="shared" si="1"/>
-        <v>'CMS'</v>
+        <v>'CMS',</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
+      <c r="A119" t="s">
         <v>403</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -8393,11 +8392,11 @@
       </c>
       <c r="I119" t="str">
         <f t="shared" si="1"/>
-        <v>'KO'</v>
+        <v>'KO',</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
+      <c r="A120" t="s">
         <v>407</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -8423,11 +8422,11 @@
       </c>
       <c r="I120" t="str">
         <f t="shared" si="1"/>
-        <v>'CTSH'</v>
+        <v>'CTSH',</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
+      <c r="A121" t="s">
         <v>410</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -8453,11 +8452,11 @@
       </c>
       <c r="I121" t="str">
         <f t="shared" si="1"/>
-        <v>'CL'</v>
+        <v>'CL',</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
+      <c r="A122" t="s">
         <v>412</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -8483,11 +8482,11 @@
       </c>
       <c r="I122" t="str">
         <f t="shared" si="1"/>
-        <v>'CMCSA'</v>
+        <v>'CMCSA',</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
+      <c r="A123" t="s">
         <v>415</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -8513,11 +8512,11 @@
       </c>
       <c r="I123" t="str">
         <f t="shared" si="1"/>
-        <v>'CMA'</v>
+        <v>'CMA',</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
+      <c r="A124" t="s">
         <v>417</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -8543,11 +8542,11 @@
       </c>
       <c r="I124" t="str">
         <f t="shared" si="1"/>
-        <v>'CAG'</v>
+        <v>'CAG',</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
+      <c r="A125" t="s">
         <v>419</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -8573,11 +8572,11 @@
       </c>
       <c r="I125" t="str">
         <f t="shared" si="1"/>
-        <v>'COP'</v>
+        <v>'COP',</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
+      <c r="A126" t="s">
         <v>421</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -8603,11 +8602,11 @@
       </c>
       <c r="I126" t="str">
         <f t="shared" si="1"/>
-        <v>'ED'</v>
+        <v>'ED',</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
+      <c r="A127" t="s">
         <v>423</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -8633,11 +8632,11 @@
       </c>
       <c r="I127" t="str">
         <f t="shared" si="1"/>
-        <v>'STZ'</v>
+        <v>'STZ',</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="s">
+      <c r="A128" t="s">
         <v>426</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -8663,11 +8662,11 @@
       </c>
       <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>'CEG'</v>
+        <v>'CEG',</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
+      <c r="A129" t="s">
         <v>429</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -8693,11 +8692,11 @@
       </c>
       <c r="I129" t="str">
         <f t="shared" si="1"/>
-        <v>'COO'</v>
+        <v>'COO',</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
+      <c r="A130" t="s">
         <v>431</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -8722,12 +8721,12 @@
         <v>1982</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" ref="I130:I193" si="2">CONCATENATE("'",A130,"'")</f>
-        <v>'CPRT'</v>
+        <f t="shared" ref="I130:I193" si="2">CONCATENATE("'",A130,"'",",")</f>
+        <v>'CPRT',</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
+      <c r="A131" t="s">
         <v>433</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -8753,11 +8752,11 @@
       </c>
       <c r="I131" t="str">
         <f t="shared" si="2"/>
-        <v>'GLW'</v>
+        <v>'GLW',</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
+      <c r="A132" t="s">
         <v>436</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -8783,11 +8782,11 @@
       </c>
       <c r="I132" t="str">
         <f t="shared" si="2"/>
-        <v>'CTVA'</v>
+        <v>'CTVA',</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="s">
+      <c r="A133" t="s">
         <v>439</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -8813,11 +8812,11 @@
       </c>
       <c r="I133" t="str">
         <f t="shared" si="2"/>
-        <v>'CSGP'</v>
+        <v>'CSGP',</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
+      <c r="A134" t="s">
         <v>443</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -8843,11 +8842,11 @@
       </c>
       <c r="I134" t="str">
         <f t="shared" si="2"/>
-        <v>'COST'</v>
+        <v>'COST',</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
+      <c r="A135" t="s">
         <v>447</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -8873,11 +8872,11 @@
       </c>
       <c r="I135" t="str">
         <f t="shared" si="2"/>
-        <v>'CTRA'</v>
+        <v>'CTRA',</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
+      <c r="A136" t="s">
         <v>450</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -8903,11 +8902,11 @@
       </c>
       <c r="I136" t="str">
         <f t="shared" si="2"/>
-        <v>'CCI'</v>
+        <v>'CCI',</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="s">
+      <c r="A137" t="s">
         <v>452</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -8933,11 +8932,11 @@
       </c>
       <c r="I137" t="str">
         <f t="shared" si="2"/>
-        <v>'CSX'</v>
+        <v>'CSX',</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="s">
+      <c r="A138" t="s">
         <v>455</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -8963,11 +8962,11 @@
       </c>
       <c r="I138" t="str">
         <f t="shared" si="2"/>
-        <v>'CMI'</v>
+        <v>'CMI',</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="s">
+      <c r="A139" t="s">
         <v>459</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -8993,11 +8992,11 @@
       </c>
       <c r="I139" t="str">
         <f t="shared" si="2"/>
-        <v>'CVS'</v>
+        <v>'CVS',</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
+      <c r="A140" t="s">
         <v>463</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -9023,11 +9022,11 @@
       </c>
       <c r="I140" t="str">
         <f t="shared" si="2"/>
-        <v>'DHI'</v>
+        <v>'DHI',</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
+      <c r="A141" t="s">
         <v>467</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -9053,11 +9052,11 @@
       </c>
       <c r="I141" t="str">
         <f t="shared" si="2"/>
-        <v>'DHR'</v>
+        <v>'DHR',</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
+      <c r="A142" t="s">
         <v>469</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -9083,11 +9082,11 @@
       </c>
       <c r="I142" t="str">
         <f t="shared" si="2"/>
-        <v>'DRI'</v>
+        <v>'DRI',</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
+      <c r="A143" t="s">
         <v>472</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -9113,11 +9112,11 @@
       </c>
       <c r="I143" t="str">
         <f t="shared" si="2"/>
-        <v>'DVA'</v>
+        <v>'DVA',</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
+      <c r="A144" t="s">
         <v>476</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -9143,11 +9142,11 @@
       </c>
       <c r="I144" t="str">
         <f t="shared" si="2"/>
-        <v>'DE'</v>
+        <v>'DE',</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A145" s="5" t="s">
+      <c r="A145" t="s">
         <v>480</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -9173,11 +9172,11 @@
       </c>
       <c r="I145" t="str">
         <f t="shared" si="2"/>
-        <v>'DAL'</v>
+        <v>'DAL',</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
+      <c r="A146" t="s">
         <v>482</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -9203,11 +9202,11 @@
       </c>
       <c r="I146" t="str">
         <f t="shared" si="2"/>
-        <v>'XRAY'</v>
+        <v>'XRAY',</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
+      <c r="A147" t="s">
         <v>485</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -9233,11 +9232,11 @@
       </c>
       <c r="I147" t="str">
         <f t="shared" si="2"/>
-        <v>'DVN'</v>
+        <v>'DVN',</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
+      <c r="A148" t="s">
         <v>488</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -9263,11 +9262,11 @@
       </c>
       <c r="I148" t="str">
         <f t="shared" si="2"/>
-        <v>'DXCM'</v>
+        <v>'DXCM',</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
+      <c r="A149" t="s">
         <v>491</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -9293,11 +9292,11 @@
       </c>
       <c r="I149" t="str">
         <f t="shared" si="2"/>
-        <v>'FANG'</v>
+        <v>'FANG',</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A150" s="5" t="s">
+      <c r="A150" t="s">
         <v>494</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -9323,11 +9322,11 @@
       </c>
       <c r="I150" t="str">
         <f t="shared" si="2"/>
-        <v>'DLR'</v>
+        <v>'DLR',</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A151" s="5" t="s">
+      <c r="A151" t="s">
         <v>498</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -9353,11 +9352,11 @@
       </c>
       <c r="I151" t="str">
         <f t="shared" si="2"/>
-        <v>'DFS'</v>
+        <v>'DFS',</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A152" s="5" t="s">
+      <c r="A152" t="s">
         <v>501</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -9383,11 +9382,11 @@
       </c>
       <c r="I152" t="str">
         <f t="shared" si="2"/>
-        <v>'DISH'</v>
+        <v>'DISH',</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="s">
+      <c r="A153" t="s">
         <v>504</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -9413,11 +9412,11 @@
       </c>
       <c r="I153" t="str">
         <f t="shared" si="2"/>
-        <v>'DIS'</v>
+        <v>'DIS',</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="s">
+      <c r="A154" t="s">
         <v>508</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -9443,11 +9442,11 @@
       </c>
       <c r="I154" t="str">
         <f t="shared" si="2"/>
-        <v>'DG'</v>
+        <v>'DG',</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A155" s="5" t="s">
+      <c r="A155" t="s">
         <v>511</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -9473,11 +9472,11 @@
       </c>
       <c r="I155" t="str">
         <f t="shared" si="2"/>
-        <v>'DLTR'</v>
+        <v>'DLTR',</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="s">
+      <c r="A156" t="s">
         <v>514</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -9501,11 +9500,11 @@
       </c>
       <c r="I156" t="str">
         <f t="shared" si="2"/>
-        <v>'D'</v>
+        <v>'D',</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="s">
+      <c r="A157" t="s">
         <v>516</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -9531,11 +9530,11 @@
       </c>
       <c r="I157" t="str">
         <f t="shared" si="2"/>
-        <v>'DPZ'</v>
+        <v>'DPZ',</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
+      <c r="A158" t="s">
         <v>519</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -9561,11 +9560,11 @@
       </c>
       <c r="I158" t="str">
         <f t="shared" si="2"/>
-        <v>'DOV'</v>
+        <v>'DOV',</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A159" s="5" t="s">
+      <c r="A159" t="s">
         <v>522</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -9591,11 +9590,11 @@
       </c>
       <c r="I159" t="str">
         <f t="shared" si="2"/>
-        <v>'DOW'</v>
+        <v>'DOW',</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A160" s="5" t="s">
+      <c r="A160" t="s">
         <v>526</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -9621,11 +9620,11 @@
       </c>
       <c r="I160" t="str">
         <f t="shared" si="2"/>
-        <v>'DTE'</v>
+        <v>'DTE',</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A161" s="5" t="s">
+      <c r="A161" t="s">
         <v>529</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -9651,11 +9650,11 @@
       </c>
       <c r="I161" t="str">
         <f t="shared" si="2"/>
-        <v>'DUK'</v>
+        <v>'DUK',</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A162" s="5" t="s">
+      <c r="A162" t="s">
         <v>531</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -9681,11 +9680,11 @@
       </c>
       <c r="I162" t="str">
         <f t="shared" si="2"/>
-        <v>'DD'</v>
+        <v>'DD',</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A163" s="5" t="s">
+      <c r="A163" t="s">
         <v>534</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -9711,11 +9710,11 @@
       </c>
       <c r="I163" t="str">
         <f t="shared" si="2"/>
-        <v>'DXC'</v>
+        <v>'DXC',</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A164" s="5" t="s">
+      <c r="A164" t="s">
         <v>536</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -9741,11 +9740,11 @@
       </c>
       <c r="I164" t="str">
         <f t="shared" si="2"/>
-        <v>'EMN'</v>
+        <v>'EMN',</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A165" s="5" t="s">
+      <c r="A165" t="s">
         <v>540</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -9771,11 +9770,11 @@
       </c>
       <c r="I165" t="str">
         <f t="shared" si="2"/>
-        <v>'ETN'</v>
+        <v>'ETN',</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="s">
+      <c r="A166" t="s">
         <v>542</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -9801,11 +9800,11 @@
       </c>
       <c r="I166" t="str">
         <f t="shared" si="2"/>
-        <v>'EBAY'</v>
+        <v>'EBAY',</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="s">
+      <c r="A167" t="s">
         <v>544</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -9831,11 +9830,11 @@
       </c>
       <c r="I167" t="str">
         <f t="shared" si="2"/>
-        <v>'ECL'</v>
+        <v>'ECL',</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A168" s="5" t="s">
+      <c r="A168" t="s">
         <v>546</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -9861,11 +9860,11 @@
       </c>
       <c r="I168" t="str">
         <f t="shared" si="2"/>
-        <v>'EIX'</v>
+        <v>'EIX',</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A169" s="5" t="s">
+      <c r="A169" t="s">
         <v>549</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -9891,11 +9890,11 @@
       </c>
       <c r="I169" t="str">
         <f t="shared" si="2"/>
-        <v>'EW'</v>
+        <v>'EW',</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="s">
+      <c r="A170" t="s">
         <v>552</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -9921,11 +9920,11 @@
       </c>
       <c r="I170" t="str">
         <f t="shared" si="2"/>
-        <v>'EA'</v>
+        <v>'EA',</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A171" s="5" t="s">
+      <c r="A171" t="s">
         <v>555</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -9951,11 +9950,11 @@
       </c>
       <c r="I171" t="str">
         <f t="shared" si="2"/>
-        <v>'ELV'</v>
+        <v>'ELV',</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
+      <c r="A172" t="s">
         <v>558</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -9981,11 +9980,11 @@
       </c>
       <c r="I172" t="str">
         <f t="shared" si="2"/>
-        <v>'LLY'</v>
+        <v>'LLY',</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
+      <c r="A173" t="s">
         <v>560</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -10011,11 +10010,11 @@
       </c>
       <c r="I173" t="str">
         <f t="shared" si="2"/>
-        <v>'EMR'</v>
+        <v>'EMR',</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="s">
+      <c r="A174" t="s">
         <v>563</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -10041,11 +10040,11 @@
       </c>
       <c r="I174" t="str">
         <f t="shared" si="2"/>
-        <v>'ENPH'</v>
+        <v>'ENPH',</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A175" s="5" t="s">
+      <c r="A175" t="s">
         <v>566</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -10071,11 +10070,11 @@
       </c>
       <c r="I175" t="str">
         <f t="shared" si="2"/>
-        <v>'ETR'</v>
+        <v>'ETR',</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="s">
+      <c r="A176" t="s">
         <v>569</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -10101,11 +10100,11 @@
       </c>
       <c r="I176" t="str">
         <f t="shared" si="2"/>
-        <v>'EOG'</v>
+        <v>'EOG',</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A177" s="5" t="s">
+      <c r="A177" t="s">
         <v>571</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -10131,11 +10130,11 @@
       </c>
       <c r="I177" t="str">
         <f t="shared" si="2"/>
-        <v>'EPAM'</v>
+        <v>'EPAM',</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="s">
+      <c r="A178" t="s">
         <v>574</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -10161,11 +10160,11 @@
       </c>
       <c r="I178" t="str">
         <f t="shared" si="2"/>
-        <v>'EQT'</v>
+        <v>'EQT',</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="s">
+      <c r="A179" t="s">
         <v>576</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -10191,11 +10190,11 @@
       </c>
       <c r="I179" t="str">
         <f t="shared" si="2"/>
-        <v>'EFX'</v>
+        <v>'EFX',</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="s">
+      <c r="A180" t="s">
         <v>578</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -10221,11 +10220,11 @@
       </c>
       <c r="I180" t="str">
         <f t="shared" si="2"/>
-        <v>'EQIX'</v>
+        <v>'EQIX',</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A181" s="5" t="s">
+      <c r="A181" t="s">
         <v>580</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -10251,11 +10250,11 @@
       </c>
       <c r="I181" t="str">
         <f t="shared" si="2"/>
-        <v>'EQR'</v>
+        <v>'EQR',</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="5" t="s">
+      <c r="A182" t="s">
         <v>582</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -10281,11 +10280,11 @@
       </c>
       <c r="I182" t="str">
         <f t="shared" si="2"/>
-        <v>'ESS'</v>
+        <v>'ESS',</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A183" s="5" t="s">
+      <c r="A183" t="s">
         <v>585</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -10311,11 +10310,11 @@
       </c>
       <c r="I183" t="str">
         <f t="shared" si="2"/>
-        <v>'EL'</v>
+        <v>'EL',</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="s">
+      <c r="A184" t="s">
         <v>588</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -10341,11 +10340,11 @@
       </c>
       <c r="I184" t="str">
         <f t="shared" si="2"/>
-        <v>'ETSY'</v>
+        <v>'ETSY',</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="s">
+      <c r="A185" t="s">
         <v>590</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -10371,11 +10370,11 @@
       </c>
       <c r="I185" t="str">
         <f t="shared" si="2"/>
-        <v>'RE'</v>
+        <v>'RE',</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="s">
+      <c r="A186" t="s">
         <v>592</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -10401,11 +10400,11 @@
       </c>
       <c r="I186" t="str">
         <f t="shared" si="2"/>
-        <v>'EVRG'</v>
+        <v>'EVRG',</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A187" s="5" t="s">
+      <c r="A187" t="s">
         <v>595</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -10431,11 +10430,11 @@
       </c>
       <c r="I187" t="str">
         <f t="shared" si="2"/>
-        <v>'ES'</v>
+        <v>'ES',</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="s">
+      <c r="A188" t="s">
         <v>598</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -10461,11 +10460,11 @@
       </c>
       <c r="I188" t="str">
         <f t="shared" si="2"/>
-        <v>'EXC'</v>
+        <v>'EXC',</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A189" s="5" t="s">
+      <c r="A189" t="s">
         <v>600</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -10491,11 +10490,11 @@
       </c>
       <c r="I189" t="str">
         <f t="shared" si="2"/>
-        <v>'EXPE'</v>
+        <v>'EXPE',</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A190" s="5" t="s">
+      <c r="A190" t="s">
         <v>602</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -10521,11 +10520,11 @@
       </c>
       <c r="I190" t="str">
         <f t="shared" si="2"/>
-        <v>'EXPD'</v>
+        <v>'EXPD',</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A191" s="5" t="s">
+      <c r="A191" t="s">
         <v>604</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -10551,11 +10550,11 @@
       </c>
       <c r="I191" t="str">
         <f t="shared" si="2"/>
-        <v>'EXR'</v>
+        <v>'EXR',</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A192" s="5" t="s">
+      <c r="A192" t="s">
         <v>608</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -10581,11 +10580,11 @@
       </c>
       <c r="I192" t="str">
         <f t="shared" si="2"/>
-        <v>'XOM'</v>
+        <v>'XOM',</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A193" s="5" t="s">
+      <c r="A193" t="s">
         <v>610</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -10611,11 +10610,11 @@
       </c>
       <c r="I193" t="str">
         <f t="shared" si="2"/>
-        <v>'FFIV'</v>
+        <v>'FFIV',</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A194" s="5" t="s">
+      <c r="A194" t="s">
         <v>612</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -10640,12 +10639,12 @@
         <v>1978</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" ref="I194:I257" si="3">CONCATENATE("'",A194,"'")</f>
-        <v>'FDS'</v>
+        <f t="shared" ref="I194:I257" si="3">CONCATENATE("'",A194,"'",",")</f>
+        <v>'FDS',</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A195" s="5" t="s">
+      <c r="A195" t="s">
         <v>614</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -10671,11 +10670,11 @@
       </c>
       <c r="I195" t="str">
         <f t="shared" si="3"/>
-        <v>'FICO'</v>
+        <v>'FICO',</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A196" s="5" t="s">
+      <c r="A196" t="s">
         <v>617</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -10701,11 +10700,11 @@
       </c>
       <c r="I196" t="str">
         <f t="shared" si="3"/>
-        <v>'FAST'</v>
+        <v>'FAST',</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A197" s="5" t="s">
+      <c r="A197" t="s">
         <v>620</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -10731,11 +10730,11 @@
       </c>
       <c r="I197" t="str">
         <f t="shared" si="3"/>
-        <v>'FRT'</v>
+        <v>'FRT',</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A198" s="5" t="s">
+      <c r="A198" t="s">
         <v>624</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -10761,11 +10760,11 @@
       </c>
       <c r="I198" t="str">
         <f t="shared" si="3"/>
-        <v>'FDX'</v>
+        <v>'FDX',</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A199" s="5" t="s">
+      <c r="A199" t="s">
         <v>626</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -10791,11 +10790,11 @@
       </c>
       <c r="I199" t="str">
         <f t="shared" si="3"/>
-        <v>'FITB'</v>
+        <v>'FITB',</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A200" s="5" t="s">
+      <c r="A200" t="s">
         <v>629</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -10821,11 +10820,11 @@
       </c>
       <c r="I200" t="str">
         <f t="shared" si="3"/>
-        <v>'FRC'</v>
+        <v>'FRC',</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A201" s="5" t="s">
+      <c r="A201" t="s">
         <v>631</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -10851,11 +10850,11 @@
       </c>
       <c r="I201" t="str">
         <f t="shared" si="3"/>
-        <v>'FSLR'</v>
+        <v>'FSLR',</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A202" s="5" t="s">
+      <c r="A202" t="s">
         <v>633</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -10881,11 +10880,11 @@
       </c>
       <c r="I202" t="str">
         <f t="shared" si="3"/>
-        <v>'FE'</v>
+        <v>'FE',</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A203" s="5" t="s">
+      <c r="A203" t="s">
         <v>636</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -10911,11 +10910,11 @@
       </c>
       <c r="I203" t="str">
         <f t="shared" si="3"/>
-        <v>'FIS'</v>
+        <v>'FIS',</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A204" s="5" t="s">
+      <c r="A204" t="s">
         <v>638</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -10941,11 +10940,11 @@
       </c>
       <c r="I204" t="str">
         <f t="shared" si="3"/>
-        <v>'FISV'</v>
+        <v>'FISV',</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A205" s="5" t="s">
+      <c r="A205" t="s">
         <v>641</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -10971,11 +10970,11 @@
       </c>
       <c r="I205" t="str">
         <f t="shared" si="3"/>
-        <v>'FLT'</v>
+        <v>'FLT',</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A206" s="5" t="s">
+      <c r="A206" t="s">
         <v>643</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -11001,11 +11000,11 @@
       </c>
       <c r="I206" t="str">
         <f t="shared" si="3"/>
-        <v>'FMC'</v>
+        <v>'FMC',</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A207" s="5" t="s">
+      <c r="A207" t="s">
         <v>645</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -11031,11 +11030,11 @@
       </c>
       <c r="I207" t="str">
         <f t="shared" si="3"/>
-        <v>'F'</v>
+        <v>'F',</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A208" s="5" t="s">
+      <c r="A208" t="s">
         <v>649</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -11061,11 +11060,11 @@
       </c>
       <c r="I208" t="str">
         <f t="shared" si="3"/>
-        <v>'FTNT'</v>
+        <v>'FTNT',</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A209" s="5" t="s">
+      <c r="A209" t="s">
         <v>653</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -11091,11 +11090,11 @@
       </c>
       <c r="I209" t="str">
         <f t="shared" si="3"/>
-        <v>'FTV'</v>
+        <v>'FTV',</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A210" s="5" t="s">
+      <c r="A210" t="s">
         <v>656</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -11121,11 +11120,11 @@
       </c>
       <c r="I210" t="str">
         <f t="shared" si="3"/>
-        <v>'FOXA'</v>
+        <v>'FOXA',</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A211" s="5" t="s">
+      <c r="A211" t="s">
         <v>658</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -11151,11 +11150,11 @@
       </c>
       <c r="I211" t="str">
         <f t="shared" si="3"/>
-        <v>'FOX'</v>
+        <v>'FOX',</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A212" s="5" t="s">
+      <c r="A212" t="s">
         <v>660</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -11181,11 +11180,11 @@
       </c>
       <c r="I212" t="str">
         <f t="shared" si="3"/>
-        <v>'BEN'</v>
+        <v>'BEN',</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A213" s="5" t="s">
+      <c r="A213" t="s">
         <v>662</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -11209,11 +11208,11 @@
       </c>
       <c r="I213" t="str">
         <f t="shared" si="3"/>
-        <v>'FCX'</v>
+        <v>'FCX',</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A214" s="5" t="s">
+      <c r="A214" t="s">
         <v>666</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -11239,11 +11238,11 @@
       </c>
       <c r="I214" t="str">
         <f t="shared" si="3"/>
-        <v>'GRMN'</v>
+        <v>'GRMN',</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A215" s="5" t="s">
+      <c r="A215" t="s">
         <v>670</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -11269,11 +11268,11 @@
       </c>
       <c r="I215" t="str">
         <f t="shared" si="3"/>
-        <v>'IT'</v>
+        <v>'IT',</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A216" s="5" t="s">
+      <c r="A216" t="s">
         <v>672</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -11299,11 +11298,11 @@
       </c>
       <c r="I216" t="str">
         <f t="shared" si="3"/>
-        <v>'GEHC'</v>
+        <v>'GEHC',</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A217" s="5" t="s">
+      <c r="A217" t="s">
         <v>675</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -11329,11 +11328,11 @@
       </c>
       <c r="I217" t="str">
         <f t="shared" si="3"/>
-        <v>'GEN'</v>
+        <v>'GEN',</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A218" s="5" t="s">
+      <c r="A218" t="s">
         <v>677</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -11359,11 +11358,11 @@
       </c>
       <c r="I218" t="str">
         <f t="shared" si="3"/>
-        <v>'GNRC'</v>
+        <v>'GNRC',</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A219" s="5" t="s">
+      <c r="A219" t="s">
         <v>680</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -11389,11 +11388,11 @@
       </c>
       <c r="I219" t="str">
         <f t="shared" si="3"/>
-        <v>'GD'</v>
+        <v>'GD',</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A220" s="5" t="s">
+      <c r="A220" t="s">
         <v>683</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -11419,11 +11418,11 @@
       </c>
       <c r="I220" t="str">
         <f t="shared" si="3"/>
-        <v>'GE'</v>
+        <v>'GE',</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A221" s="5" t="s">
+      <c r="A221" t="s">
         <v>685</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -11449,11 +11448,11 @@
       </c>
       <c r="I221" t="str">
         <f t="shared" si="3"/>
-        <v>'GIS'</v>
+        <v>'GIS',</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A222" s="5" t="s">
+      <c r="A222" t="s">
         <v>688</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -11479,11 +11478,11 @@
       </c>
       <c r="I222" t="str">
         <f t="shared" si="3"/>
-        <v>'GM'</v>
+        <v>'GM',</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A223" s="5" t="s">
+      <c r="A223" t="s">
         <v>690</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -11509,11 +11508,11 @@
       </c>
       <c r="I223" t="str">
         <f t="shared" si="3"/>
-        <v>'GPC'</v>
+        <v>'GPC',</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A224" s="5" t="s">
+      <c r="A224" t="s">
         <v>692</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -11539,11 +11538,11 @@
       </c>
       <c r="I224" t="str">
         <f t="shared" si="3"/>
-        <v>'GILD'</v>
+        <v>'GILD',</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A225" s="5" t="s">
+      <c r="A225" t="s">
         <v>695</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -11569,11 +11568,11 @@
       </c>
       <c r="I225" t="str">
         <f t="shared" si="3"/>
-        <v>'GL'</v>
+        <v>'GL',</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A226" s="5" t="s">
+      <c r="A226" t="s">
         <v>698</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -11599,11 +11598,11 @@
       </c>
       <c r="I226" t="str">
         <f t="shared" si="3"/>
-        <v>'GPN'</v>
+        <v>'GPN',</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A227" s="5" t="s">
+      <c r="A227" t="s">
         <v>700</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -11629,11 +11628,11 @@
       </c>
       <c r="I227" t="str">
         <f t="shared" si="3"/>
-        <v>'GS'</v>
+        <v>'GS',</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A228" s="5" t="s">
+      <c r="A228" t="s">
         <v>702</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -11659,11 +11658,11 @@
       </c>
       <c r="I228" t="str">
         <f t="shared" si="3"/>
-        <v>'HAL'</v>
+        <v>'HAL',</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A229" s="5" t="s">
+      <c r="A229" t="s">
         <v>704</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -11689,11 +11688,11 @@
       </c>
       <c r="I229" t="str">
         <f t="shared" si="3"/>
-        <v>'HIG'</v>
+        <v>'HIG',</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A230" s="5" t="s">
+      <c r="A230" t="s">
         <v>706</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -11719,11 +11718,11 @@
       </c>
       <c r="I230" t="str">
         <f t="shared" si="3"/>
-        <v>'HAS'</v>
+        <v>'HAS',</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A231" s="5" t="s">
+      <c r="A231" t="s">
         <v>710</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -11749,11 +11748,11 @@
       </c>
       <c r="I231" t="str">
         <f t="shared" si="3"/>
-        <v>'HCA'</v>
+        <v>'HCA',</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A232" s="5" t="s">
+      <c r="A232" t="s">
         <v>713</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -11779,11 +11778,11 @@
       </c>
       <c r="I232" t="str">
         <f t="shared" si="3"/>
-        <v>'PEAK'</v>
+        <v>'PEAK',</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A233" s="5" t="s">
+      <c r="A233" t="s">
         <v>717</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -11809,11 +11808,11 @@
       </c>
       <c r="I233" t="str">
         <f t="shared" si="3"/>
-        <v>'HSIC'</v>
+        <v>'HSIC',</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A234" s="5" t="s">
+      <c r="A234" t="s">
         <v>720</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -11839,11 +11838,11 @@
       </c>
       <c r="I234" t="str">
         <f t="shared" si="3"/>
-        <v>'HSY'</v>
+        <v>'HSY',</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A235" s="5" t="s">
+      <c r="A235" t="s">
         <v>723</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -11869,11 +11868,11 @@
       </c>
       <c r="I235" t="str">
         <f t="shared" si="3"/>
-        <v>'HES'</v>
+        <v>'HES',</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A236" s="5" t="s">
+      <c r="A236" t="s">
         <v>725</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -11899,11 +11898,11 @@
       </c>
       <c r="I236" t="str">
         <f t="shared" si="3"/>
-        <v>'HPE'</v>
+        <v>'HPE',</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A237" s="5" t="s">
+      <c r="A237" t="s">
         <v>727</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -11929,11 +11928,11 @@
       </c>
       <c r="I237" t="str">
         <f t="shared" si="3"/>
-        <v>'HLT'</v>
+        <v>'HLT',</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A238" s="5" t="s">
+      <c r="A238" t="s">
         <v>729</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -11959,11 +11958,11 @@
       </c>
       <c r="I238" t="str">
         <f t="shared" si="3"/>
-        <v>'HOLX'</v>
+        <v>'HOLX',</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A239" s="5" t="s">
+      <c r="A239" t="s">
         <v>731</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -11989,11 +11988,11 @@
       </c>
       <c r="I239" t="str">
         <f t="shared" si="3"/>
-        <v>'HD'</v>
+        <v>'HD',</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A240" s="5" t="s">
+      <c r="A240" t="s">
         <v>734</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -12019,11 +12018,11 @@
       </c>
       <c r="I240" t="str">
         <f t="shared" si="3"/>
-        <v>'HON'</v>
+        <v>'HON',</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A241" s="5" t="s">
+      <c r="A241" t="s">
         <v>736</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -12049,11 +12048,11 @@
       </c>
       <c r="I241" t="str">
         <f t="shared" si="3"/>
-        <v>'HRL'</v>
+        <v>'HRL',</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A242" s="5" t="s">
+      <c r="A242" t="s">
         <v>739</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -12079,11 +12078,11 @@
       </c>
       <c r="I242" t="str">
         <f t="shared" si="3"/>
-        <v>'HST'</v>
+        <v>'HST',</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A243" s="5" t="s">
+      <c r="A243" t="s">
         <v>743</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -12109,11 +12108,11 @@
       </c>
       <c r="I243" t="str">
         <f t="shared" si="3"/>
-        <v>'HWM'</v>
+        <v>'HWM',</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A244" s="5" t="s">
+      <c r="A244" t="s">
         <v>745</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -12139,11 +12138,11 @@
       </c>
       <c r="I244" t="str">
         <f t="shared" si="3"/>
-        <v>'HPQ'</v>
+        <v>'HPQ',</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A245" s="5" t="s">
+      <c r="A245" t="s">
         <v>749</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -12167,11 +12166,11 @@
       </c>
       <c r="I245" t="str">
         <f t="shared" si="3"/>
-        <v>'HUM'</v>
+        <v>'HUM',</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A246" s="5" t="s">
+      <c r="A246" t="s">
         <v>751</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -12197,11 +12196,11 @@
       </c>
       <c r="I246" t="str">
         <f t="shared" si="3"/>
-        <v>'HBAN'</v>
+        <v>'HBAN',</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A247" s="5" t="s">
+      <c r="A247" t="s">
         <v>754</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -12227,11 +12226,11 @@
       </c>
       <c r="I247" t="str">
         <f t="shared" si="3"/>
-        <v>'HII'</v>
+        <v>'HII',</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A248" s="5" t="s">
+      <c r="A248" t="s">
         <v>757</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -12257,11 +12256,11 @@
       </c>
       <c r="I248" t="str">
         <f t="shared" si="3"/>
-        <v>'IBM'</v>
+        <v>'IBM',</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A249" s="5" t="s">
+      <c r="A249" t="s">
         <v>759</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -12287,11 +12286,11 @@
       </c>
       <c r="I249" t="str">
         <f t="shared" si="3"/>
-        <v>'IEX'</v>
+        <v>'IEX',</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A250" s="5" t="s">
+      <c r="A250" t="s">
         <v>762</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -12317,11 +12316,11 @@
       </c>
       <c r="I250" t="str">
         <f t="shared" si="3"/>
-        <v>'IDXX'</v>
+        <v>'IDXX',</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A251" s="5" t="s">
+      <c r="A251" t="s">
         <v>765</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -12347,11 +12346,11 @@
       </c>
       <c r="I251" t="str">
         <f t="shared" si="3"/>
-        <v>'ITW'</v>
+        <v>'ITW',</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A252" s="5" t="s">
+      <c r="A252" t="s">
         <v>768</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -12377,11 +12376,11 @@
       </c>
       <c r="I252" t="str">
         <f t="shared" si="3"/>
-        <v>'ILMN'</v>
+        <v>'ILMN',</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A253" s="5" t="s">
+      <c r="A253" t="s">
         <v>770</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -12407,11 +12406,11 @@
       </c>
       <c r="I253" t="str">
         <f t="shared" si="3"/>
-        <v>'INCY'</v>
+        <v>'INCY',</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A254" s="5" t="s">
+      <c r="A254" t="s">
         <v>772</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -12437,11 +12436,11 @@
       </c>
       <c r="I254" t="str">
         <f t="shared" si="3"/>
-        <v>'IR'</v>
+        <v>'IR',</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A255" s="5" t="s">
+      <c r="A255" t="s">
         <v>775</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -12467,11 +12466,11 @@
       </c>
       <c r="I255" t="str">
         <f t="shared" si="3"/>
-        <v>'PODD'</v>
+        <v>'PODD',</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A256" s="5" t="s">
+      <c r="A256" t="s">
         <v>778</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -12497,11 +12496,11 @@
       </c>
       <c r="I256" t="str">
         <f t="shared" si="3"/>
-        <v>'INTC'</v>
+        <v>'INTC',</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A257" s="5" t="s">
+      <c r="A257" t="s">
         <v>780</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -12527,11 +12526,11 @@
       </c>
       <c r="I257" t="str">
         <f t="shared" si="3"/>
-        <v>'ICE'</v>
+        <v>'ICE',</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A258" s="5" t="s">
+      <c r="A258" t="s">
         <v>782</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -12556,12 +12555,12 @@
         <v>784</v>
       </c>
       <c r="I258" t="str">
-        <f t="shared" ref="I258:I321" si="4">CONCATENATE("'",A258,"'")</f>
-        <v>'IFF'</v>
+        <f t="shared" ref="I258:I321" si="4">CONCATENATE("'",A258,"'",",")</f>
+        <v>'IFF',</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A259" s="5" t="s">
+      <c r="A259" t="s">
         <v>785</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -12587,11 +12586,11 @@
       </c>
       <c r="I259" t="str">
         <f t="shared" si="4"/>
-        <v>'IP'</v>
+        <v>'IP',</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A260" s="5" t="s">
+      <c r="A260" t="s">
         <v>787</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -12617,11 +12616,11 @@
       </c>
       <c r="I260" t="str">
         <f t="shared" si="4"/>
-        <v>'IPG'</v>
+        <v>'IPG',</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A261" s="5" t="s">
+      <c r="A261" t="s">
         <v>791</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -12647,11 +12646,11 @@
       </c>
       <c r="I261" t="str">
         <f t="shared" si="4"/>
-        <v>'INTU'</v>
+        <v>'INTU',</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A262" s="5" t="s">
+      <c r="A262" t="s">
         <v>793</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -12677,11 +12676,11 @@
       </c>
       <c r="I262" t="str">
         <f t="shared" si="4"/>
-        <v>'ISRG'</v>
+        <v>'ISRG',</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A263" s="5" t="s">
+      <c r="A263" t="s">
         <v>795</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -12707,11 +12706,11 @@
       </c>
       <c r="I263" t="str">
         <f t="shared" si="4"/>
-        <v>'IVZ'</v>
+        <v>'IVZ',</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A264" s="5" t="s">
+      <c r="A264" t="s">
         <v>797</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -12737,11 +12736,11 @@
       </c>
       <c r="I264" t="str">
         <f t="shared" si="4"/>
-        <v>'INVH'</v>
+        <v>'INVH',</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A265" s="5" t="s">
+      <c r="A265" t="s">
         <v>799</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -12767,11 +12766,11 @@
       </c>
       <c r="I265" t="str">
         <f t="shared" si="4"/>
-        <v>'IQV'</v>
+        <v>'IQV',</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A266" s="5" t="s">
+      <c r="A266" t="s">
         <v>802</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -12797,11 +12796,11 @@
       </c>
       <c r="I266" t="str">
         <f t="shared" si="4"/>
-        <v>'IRM'</v>
+        <v>'IRM',</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A267" s="5" t="s">
+      <c r="A267" t="s">
         <v>805</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -12827,11 +12826,11 @@
       </c>
       <c r="I267" t="str">
         <f t="shared" si="4"/>
-        <v>'JBHT'</v>
+        <v>'JBHT',</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A268" s="5" t="s">
+      <c r="A268" t="s">
         <v>809</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -12857,11 +12856,11 @@
       </c>
       <c r="I268" t="str">
         <f t="shared" si="4"/>
-        <v>'JKHY'</v>
+        <v>'JKHY',</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A269" s="5" t="s">
+      <c r="A269" t="s">
         <v>812</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -12887,11 +12886,11 @@
       </c>
       <c r="I269" t="str">
         <f t="shared" si="4"/>
-        <v>'J'</v>
+        <v>'J',</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A270" s="5" t="s">
+      <c r="A270" t="s">
         <v>815</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -12917,11 +12916,11 @@
       </c>
       <c r="I270" t="str">
         <f t="shared" si="4"/>
-        <v>'JNJ'</v>
+        <v>'JNJ',</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A271" s="5" t="s">
+      <c r="A271" t="s">
         <v>818</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -12947,11 +12946,11 @@
       </c>
       <c r="I271" t="str">
         <f t="shared" si="4"/>
-        <v>'JCI'</v>
+        <v>'JCI',</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A272" s="5" t="s">
+      <c r="A272" t="s">
         <v>821</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -12977,11 +12976,11 @@
       </c>
       <c r="I272" t="str">
         <f t="shared" si="4"/>
-        <v>'JPM'</v>
+        <v>'JPM',</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A273" s="5" t="s">
+      <c r="A273" t="s">
         <v>824</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -13007,11 +13006,11 @@
       </c>
       <c r="I273" t="str">
         <f t="shared" si="4"/>
-        <v>'JNPR'</v>
+        <v>'JNPR',</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A274" s="5" t="s">
+      <c r="A274" t="s">
         <v>826</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -13037,11 +13036,11 @@
       </c>
       <c r="I274" t="str">
         <f t="shared" si="4"/>
-        <v>'K'</v>
+        <v>'K',</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A275" s="5" t="s">
+      <c r="A275" t="s">
         <v>829</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -13067,11 +13066,11 @@
       </c>
       <c r="I275" t="str">
         <f t="shared" si="4"/>
-        <v>'KDP'</v>
+        <v>'KDP',</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A276" s="5" t="s">
+      <c r="A276" t="s">
         <v>832</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -13097,11 +13096,11 @@
       </c>
       <c r="I276" t="str">
         <f t="shared" si="4"/>
-        <v>'KEY'</v>
+        <v>'KEY',</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A277" s="5" t="s">
+      <c r="A277" t="s">
         <v>835</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -13127,11 +13126,11 @@
       </c>
       <c r="I277" t="str">
         <f t="shared" si="4"/>
-        <v>'KEYS'</v>
+        <v>'KEYS',</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A278" s="5" t="s">
+      <c r="A278" t="s">
         <v>840</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -13157,11 +13156,11 @@
       </c>
       <c r="I278" t="str">
         <f t="shared" si="4"/>
-        <v>'KMB'</v>
+        <v>'KMB',</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A279" s="5" t="s">
+      <c r="A279" t="s">
         <v>842</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -13187,11 +13186,11 @@
       </c>
       <c r="I279" t="str">
         <f t="shared" si="4"/>
-        <v>'KIM'</v>
+        <v>'KIM',</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A280" s="5" t="s">
+      <c r="A280" t="s">
         <v>845</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -13217,11 +13216,11 @@
       </c>
       <c r="I280" t="str">
         <f t="shared" si="4"/>
-        <v>'KMI'</v>
+        <v>'KMI',</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A281" s="5" t="s">
+      <c r="A281" t="s">
         <v>848</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -13247,11 +13246,11 @@
       </c>
       <c r="I281" t="str">
         <f t="shared" si="4"/>
-        <v>'KLAC'</v>
+        <v>'KLAC',</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A282" s="5" t="s">
+      <c r="A282" t="s">
         <v>852</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -13277,11 +13276,11 @@
       </c>
       <c r="I282" t="str">
         <f t="shared" si="4"/>
-        <v>'KHC'</v>
+        <v>'KHC',</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A283" s="5" t="s">
+      <c r="A283" t="s">
         <v>856</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -13307,11 +13306,11 @@
       </c>
       <c r="I283" t="str">
         <f t="shared" si="4"/>
-        <v>'KR'</v>
+        <v>'KR',</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A284" s="5" t="s">
+      <c r="A284" t="s">
         <v>859</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -13337,11 +13336,11 @@
       </c>
       <c r="I284" t="str">
         <f t="shared" si="4"/>
-        <v>'LHX'</v>
+        <v>'LHX',</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A285" s="5" t="s">
+      <c r="A285" t="s">
         <v>863</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -13367,11 +13366,11 @@
       </c>
       <c r="I285" t="str">
         <f t="shared" si="4"/>
-        <v>'LH'</v>
+        <v>'LH',</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A286" s="5" t="s">
+      <c r="A286" t="s">
         <v>866</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -13397,11 +13396,11 @@
       </c>
       <c r="I286" t="str">
         <f t="shared" si="4"/>
-        <v>'LRCX'</v>
+        <v>'LRCX',</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A287" s="5" t="s">
+      <c r="A287" t="s">
         <v>868</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -13427,11 +13426,11 @@
       </c>
       <c r="I287" t="str">
         <f t="shared" si="4"/>
-        <v>'LW'</v>
+        <v>'LW',</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A288" s="5" t="s">
+      <c r="A288" t="s">
         <v>872</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -13457,11 +13456,11 @@
       </c>
       <c r="I288" t="str">
         <f t="shared" si="4"/>
-        <v>'LVS'</v>
+        <v>'LVS',</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A289" s="5" t="s">
+      <c r="A289" t="s">
         <v>875</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -13487,11 +13486,11 @@
       </c>
       <c r="I289" t="str">
         <f t="shared" si="4"/>
-        <v>'LDOS'</v>
+        <v>'LDOS',</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A290" s="5" t="s">
+      <c r="A290" t="s">
         <v>878</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -13517,11 +13516,11 @@
       </c>
       <c r="I290" t="str">
         <f t="shared" si="4"/>
-        <v>'LEN'</v>
+        <v>'LEN',</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A291" s="5" t="s">
+      <c r="A291" t="s">
         <v>880</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -13547,11 +13546,11 @@
       </c>
       <c r="I291" t="str">
         <f t="shared" si="4"/>
-        <v>'LNC'</v>
+        <v>'LNC',</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A292" s="5" t="s">
+      <c r="A292" t="s">
         <v>883</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -13577,11 +13576,11 @@
       </c>
       <c r="I292" t="str">
         <f t="shared" si="4"/>
-        <v>'LIN'</v>
+        <v>'LIN',</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A293" s="5" t="s">
+      <c r="A293" t="s">
         <v>886</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -13607,11 +13606,11 @@
       </c>
       <c r="I293" t="str">
         <f t="shared" si="4"/>
-        <v>'LYV'</v>
+        <v>'LYV',</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A294" s="5" t="s">
+      <c r="A294" t="s">
         <v>889</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -13637,11 +13636,11 @@
       </c>
       <c r="I294" t="str">
         <f t="shared" si="4"/>
-        <v>'LKQ'</v>
+        <v>'LKQ',</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A295" s="5" t="s">
+      <c r="A295" t="s">
         <v>892</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -13667,11 +13666,11 @@
       </c>
       <c r="I295" t="str">
         <f t="shared" si="4"/>
-        <v>'LMT'</v>
+        <v>'LMT',</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A296" s="5" t="s">
+      <c r="A296" t="s">
         <v>894</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -13697,11 +13696,11 @@
       </c>
       <c r="I296" t="str">
         <f t="shared" si="4"/>
-        <v>'L'</v>
+        <v>'L',</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A297" s="5" t="s">
+      <c r="A297" t="s">
         <v>896</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -13727,11 +13726,11 @@
       </c>
       <c r="I297" t="str">
         <f t="shared" si="4"/>
-        <v>'LOW'</v>
+        <v>'LOW',</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A298" s="5" t="s">
+      <c r="A298" t="s">
         <v>900</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -13757,11 +13756,11 @@
       </c>
       <c r="I298" t="str">
         <f t="shared" si="4"/>
-        <v>'LYB'</v>
+        <v>'LYB',</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A299" s="5" t="s">
+      <c r="A299" t="s">
         <v>903</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -13787,11 +13786,11 @@
       </c>
       <c r="I299" t="str">
         <f t="shared" si="4"/>
-        <v>'MTB'</v>
+        <v>'MTB',</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A300" s="5" t="s">
+      <c r="A300" t="s">
         <v>906</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -13817,11 +13816,11 @@
       </c>
       <c r="I300" t="str">
         <f t="shared" si="4"/>
-        <v>'MRO'</v>
+        <v>'MRO',</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A301" s="5" t="s">
+      <c r="A301" t="s">
         <v>908</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -13847,11 +13846,11 @@
       </c>
       <c r="I301" t="str">
         <f t="shared" si="4"/>
-        <v>'MPC'</v>
+        <v>'MPC',</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A302" s="5" t="s">
+      <c r="A302" t="s">
         <v>913</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -13877,11 +13876,11 @@
       </c>
       <c r="I302" t="str">
         <f t="shared" si="4"/>
-        <v>'MKTX'</v>
+        <v>'MKTX',</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A303" s="5" t="s">
+      <c r="A303" t="s">
         <v>915</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -13907,11 +13906,11 @@
       </c>
       <c r="I303" t="str">
         <f t="shared" si="4"/>
-        <v>'MAR'</v>
+        <v>'MAR',</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A304" s="5" t="s">
+      <c r="A304" t="s">
         <v>917</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -13937,11 +13936,11 @@
       </c>
       <c r="I304" t="str">
         <f t="shared" si="4"/>
-        <v>'MMC'</v>
+        <v>'MMC',</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A305" s="5" t="s">
+      <c r="A305" t="s">
         <v>919</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -13967,11 +13966,11 @@
       </c>
       <c r="I305" t="str">
         <f t="shared" si="4"/>
-        <v>'MLM'</v>
+        <v>'MLM',</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A306" s="5" t="s">
+      <c r="A306" t="s">
         <v>922</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -13997,11 +13996,11 @@
       </c>
       <c r="I306" t="str">
         <f t="shared" si="4"/>
-        <v>'MAS'</v>
+        <v>'MAS',</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A307" s="5" t="s">
+      <c r="A307" t="s">
         <v>925</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -14027,11 +14026,11 @@
       </c>
       <c r="I307" t="str">
         <f t="shared" si="4"/>
-        <v>'MA'</v>
+        <v>'MA',</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A308" s="5" t="s">
+      <c r="A308" t="s">
         <v>928</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -14057,11 +14056,11 @@
       </c>
       <c r="I308" t="str">
         <f t="shared" si="4"/>
-        <v>'MTCH'</v>
+        <v>'MTCH',</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A309" s="5" t="s">
+      <c r="A309" t="s">
         <v>930</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -14087,11 +14086,11 @@
       </c>
       <c r="I309" t="str">
         <f t="shared" si="4"/>
-        <v>'MKC'</v>
+        <v>'MKC',</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A310" s="5" t="s">
+      <c r="A310" t="s">
         <v>933</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -14117,11 +14116,11 @@
       </c>
       <c r="I310" t="str">
         <f t="shared" si="4"/>
-        <v>'MCD'</v>
+        <v>'MCD',</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A311" s="5" t="s">
+      <c r="A311" t="s">
         <v>935</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -14147,11 +14146,11 @@
       </c>
       <c r="I311" t="str">
         <f t="shared" si="4"/>
-        <v>'MCK'</v>
+        <v>'MCK',</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A312" s="5" t="s">
+      <c r="A312" t="s">
         <v>937</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -14177,11 +14176,11 @@
       </c>
       <c r="I312" t="str">
         <f t="shared" si="4"/>
-        <v>'MDT'</v>
+        <v>'MDT',</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A313" s="5" t="s">
+      <c r="A313" t="s">
         <v>939</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -14207,11 +14206,11 @@
       </c>
       <c r="I313" t="str">
         <f t="shared" si="4"/>
-        <v>'MRK'</v>
+        <v>'MRK',</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A314" s="5" t="s">
+      <c r="A314" t="s">
         <v>942</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -14237,11 +14236,11 @@
       </c>
       <c r="I314" t="str">
         <f t="shared" si="4"/>
-        <v>'META'</v>
+        <v>'META',</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A315" s="5" t="s">
+      <c r="A315" t="s">
         <v>945</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -14267,11 +14266,11 @@
       </c>
       <c r="I315" t="str">
         <f t="shared" si="4"/>
-        <v>'MET'</v>
+        <v>'MET',</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A316" s="5" t="s">
+      <c r="A316" t="s">
         <v>947</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -14297,11 +14296,11 @@
       </c>
       <c r="I316" t="str">
         <f t="shared" si="4"/>
-        <v>'MTD'</v>
+        <v>'MTD',</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A317" s="5" t="s">
+      <c r="A317" t="s">
         <v>949</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -14327,11 +14326,11 @@
       </c>
       <c r="I317" t="str">
         <f t="shared" si="4"/>
-        <v>'MGM'</v>
+        <v>'MGM',</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A318" s="5" t="s">
+      <c r="A318" t="s">
         <v>952</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -14357,11 +14356,11 @@
       </c>
       <c r="I318" t="str">
         <f t="shared" si="4"/>
-        <v>'MCHP'</v>
+        <v>'MCHP',</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A319" s="5" t="s">
+      <c r="A319" t="s">
         <v>955</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -14387,11 +14386,11 @@
       </c>
       <c r="I319" t="str">
         <f t="shared" si="4"/>
-        <v>'MU'</v>
+        <v>'MU',</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A320" s="5" t="s">
+      <c r="A320" t="s">
         <v>958</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -14417,11 +14416,11 @@
       </c>
       <c r="I320" t="str">
         <f t="shared" si="4"/>
-        <v>'MSFT'</v>
+        <v>'MSFT',</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A321" s="5" t="s">
+      <c r="A321" t="s">
         <v>961</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -14447,11 +14446,11 @@
       </c>
       <c r="I321" t="str">
         <f t="shared" si="4"/>
-        <v>'MAA'</v>
+        <v>'MAA',</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A322" s="5" t="s">
+      <c r="A322" t="s">
         <v>963</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -14476,12 +14475,12 @@
         <v>2010</v>
       </c>
       <c r="I322" t="str">
-        <f t="shared" ref="I322:I385" si="5">CONCATENATE("'",A322,"'")</f>
-        <v>'MRNA'</v>
+        <f t="shared" ref="I322:I385" si="5">CONCATENATE("'",A322,"'",",")</f>
+        <v>'MRNA',</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A323" s="5" t="s">
+      <c r="A323" t="s">
         <v>965</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -14507,11 +14506,11 @@
       </c>
       <c r="I323" t="str">
         <f t="shared" si="5"/>
-        <v>'MHK'</v>
+        <v>'MHK',</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A324" s="5" t="s">
+      <c r="A324" t="s">
         <v>969</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -14537,11 +14536,11 @@
       </c>
       <c r="I324" t="str">
         <f t="shared" si="5"/>
-        <v>'MOH'</v>
+        <v>'MOH',</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A325" s="5" t="s">
+      <c r="A325" t="s">
         <v>971</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -14567,11 +14566,11 @@
       </c>
       <c r="I325" t="str">
         <f t="shared" si="5"/>
-        <v>'TAP'</v>
+        <v>'TAP',</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A326" s="5" t="s">
+      <c r="A326" t="s">
         <v>975</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -14597,11 +14596,11 @@
       </c>
       <c r="I326" t="str">
         <f t="shared" si="5"/>
-        <v>'MDLZ'</v>
+        <v>'MDLZ',</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A327" s="5" t="s">
+      <c r="A327" t="s">
         <v>977</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -14627,11 +14626,11 @@
       </c>
       <c r="I327" t="str">
         <f t="shared" si="5"/>
-        <v>'MPWR'</v>
+        <v>'MPWR',</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A328" s="5" t="s">
+      <c r="A328" t="s">
         <v>980</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -14657,11 +14656,11 @@
       </c>
       <c r="I328" t="str">
         <f t="shared" si="5"/>
-        <v>'MNST'</v>
+        <v>'MNST',</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A329" s="5" t="s">
+      <c r="A329" t="s">
         <v>984</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -14687,11 +14686,11 @@
       </c>
       <c r="I329" t="str">
         <f t="shared" si="5"/>
-        <v>'MCO'</v>
+        <v>'MCO',</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A330" s="5" t="s">
+      <c r="A330" t="s">
         <v>986</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -14717,11 +14716,11 @@
       </c>
       <c r="I330" t="str">
         <f t="shared" si="5"/>
-        <v>'MS'</v>
+        <v>'MS',</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A331" s="5" t="s">
+      <c r="A331" t="s">
         <v>988</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -14747,11 +14746,11 @@
       </c>
       <c r="I331" t="str">
         <f t="shared" si="5"/>
-        <v>'MOS'</v>
+        <v>'MOS',</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A332" s="5" t="s">
+      <c r="A332" t="s">
         <v>992</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -14777,11 +14776,11 @@
       </c>
       <c r="I332" t="str">
         <f t="shared" si="5"/>
-        <v>'MSI'</v>
+        <v>'MSI',</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A333" s="5" t="s">
+      <c r="A333" t="s">
         <v>995</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -14807,11 +14806,11 @@
       </c>
       <c r="I333" t="str">
         <f t="shared" si="5"/>
-        <v>'MSCI'</v>
+        <v>'MSCI',</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A334" s="5" t="s">
+      <c r="A334" t="s">
         <v>996</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -14837,11 +14836,11 @@
       </c>
       <c r="I334" t="str">
         <f t="shared" si="5"/>
-        <v>'NDAQ'</v>
+        <v>'NDAQ',</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A335" s="5" t="s">
+      <c r="A335" t="s">
         <v>998</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -14867,11 +14866,11 @@
       </c>
       <c r="I335" t="str">
         <f t="shared" si="5"/>
-        <v>'NTAP'</v>
+        <v>'NTAP',</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A336" s="5" t="s">
+      <c r="A336" t="s">
         <v>1000</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -14897,11 +14896,11 @@
       </c>
       <c r="I336" t="str">
         <f t="shared" si="5"/>
-        <v>'NFLX'</v>
+        <v>'NFLX',</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A337" s="5" t="s">
+      <c r="A337" t="s">
         <v>1003</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -14927,11 +14926,11 @@
       </c>
       <c r="I337" t="str">
         <f t="shared" si="5"/>
-        <v>'NWL'</v>
+        <v>'NWL',</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A338" s="5" t="s">
+      <c r="A338" t="s">
         <v>1006</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -14957,11 +14956,11 @@
       </c>
       <c r="I338" t="str">
         <f t="shared" si="5"/>
-        <v>'NEM'</v>
+        <v>'NEM',</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A339" s="5" t="s">
+      <c r="A339" t="s">
         <v>1009</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -14987,11 +14986,11 @@
       </c>
       <c r="I339" t="str">
         <f t="shared" si="5"/>
-        <v>'NWSA'</v>
+        <v>'NWSA',</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A340" s="5" t="s">
+      <c r="A340" t="s">
         <v>1013</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -15017,11 +15016,11 @@
       </c>
       <c r="I340" t="str">
         <f t="shared" si="5"/>
-        <v>'NWS'</v>
+        <v>'NWS',</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A341" s="5" t="s">
+      <c r="A341" t="s">
         <v>1015</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -15047,11 +15046,11 @@
       </c>
       <c r="I341" t="str">
         <f t="shared" si="5"/>
-        <v>'NEE'</v>
+        <v>'NEE',</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A342" s="5" t="s">
+      <c r="A342" t="s">
         <v>1019</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -15077,11 +15076,11 @@
       </c>
       <c r="I342" t="str">
         <f t="shared" si="5"/>
-        <v>'NKE'</v>
+        <v>'NKE',</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A343" s="5" t="s">
+      <c r="A343" t="s">
         <v>1023</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -15107,11 +15106,11 @@
       </c>
       <c r="I343" t="str">
         <f t="shared" si="5"/>
-        <v>'NI'</v>
+        <v>'NI',</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A344" s="5" t="s">
+      <c r="A344" t="s">
         <v>1026</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -15137,11 +15136,11 @@
       </c>
       <c r="I344" t="str">
         <f t="shared" si="5"/>
-        <v>'NDSN'</v>
+        <v>'NDSN',</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A345" s="5" t="s">
+      <c r="A345" t="s">
         <v>1029</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -15167,11 +15166,11 @@
       </c>
       <c r="I345" t="str">
         <f t="shared" si="5"/>
-        <v>'NSC'</v>
+        <v>'NSC',</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A346" s="5" t="s">
+      <c r="A346" t="s">
         <v>1032</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -15197,11 +15196,11 @@
       </c>
       <c r="I346" t="str">
         <f t="shared" si="5"/>
-        <v>'NTRS'</v>
+        <v>'NTRS',</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A347" s="5" t="s">
+      <c r="A347" t="s">
         <v>1034</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -15227,11 +15226,11 @@
       </c>
       <c r="I347" t="str">
         <f t="shared" si="5"/>
-        <v>'NOC'</v>
+        <v>'NOC',</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A348" s="5" t="s">
+      <c r="A348" t="s">
         <v>1038</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -15257,11 +15256,11 @@
       </c>
       <c r="I348" t="str">
         <f t="shared" si="5"/>
-        <v>'NCLH'</v>
+        <v>'NCLH',</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A349" s="5" t="s">
+      <c r="A349" t="s">
         <v>1041</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -15287,11 +15286,11 @@
       </c>
       <c r="I349" t="str">
         <f t="shared" si="5"/>
-        <v>'NRG'</v>
+        <v>'NRG',</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A350" s="5" t="s">
+      <c r="A350" t="s">
         <v>1043</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -15317,11 +15316,11 @@
       </c>
       <c r="I350" t="str">
         <f t="shared" si="5"/>
-        <v>'NUE'</v>
+        <v>'NUE',</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A351" s="5" t="s">
+      <c r="A351" t="s">
         <v>1046</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -15347,11 +15346,11 @@
       </c>
       <c r="I351" t="str">
         <f t="shared" si="5"/>
-        <v>'NVDA'</v>
+        <v>'NVDA',</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A352" s="5" t="s">
+      <c r="A352" t="s">
         <v>1048</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -15377,11 +15376,11 @@
       </c>
       <c r="I352" t="str">
         <f t="shared" si="5"/>
-        <v>'NVR'</v>
+        <v>'NVR',</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A353" s="5" t="s">
+      <c r="A353" t="s">
         <v>1050</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -15407,11 +15406,11 @@
       </c>
       <c r="I353" t="str">
         <f t="shared" si="5"/>
-        <v>'NXPI'</v>
+        <v>'NXPI',</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A354" s="5" t="s">
+      <c r="A354" t="s">
         <v>1053</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -15437,11 +15436,11 @@
       </c>
       <c r="I354" t="str">
         <f t="shared" si="5"/>
-        <v>'ORLY'</v>
+        <v>'ORLY',</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A355" s="5" t="s">
+      <c r="A355" t="s">
         <v>1056</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -15467,11 +15466,11 @@
       </c>
       <c r="I355" t="str">
         <f t="shared" si="5"/>
-        <v>'OXY'</v>
+        <v>'OXY',</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A356" s="5" t="s">
+      <c r="A356" t="s">
         <v>1058</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -15497,11 +15496,11 @@
       </c>
       <c r="I356" t="str">
         <f t="shared" si="5"/>
-        <v>'ODFL'</v>
+        <v>'ODFL',</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A357" s="5" t="s">
+      <c r="A357" t="s">
         <v>1061</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -15527,11 +15526,11 @@
       </c>
       <c r="I357" t="str">
         <f t="shared" si="5"/>
-        <v>'OMC'</v>
+        <v>'OMC',</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A358" s="5" t="s">
+      <c r="A358" t="s">
         <v>1063</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -15557,11 +15556,11 @@
       </c>
       <c r="I358" t="str">
         <f t="shared" si="5"/>
-        <v>'ON'</v>
+        <v>'ON',</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A359" s="5" t="s">
+      <c r="A359" t="s">
         <v>1065</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -15587,11 +15586,11 @@
       </c>
       <c r="I359" t="str">
         <f t="shared" si="5"/>
-        <v>'OKE'</v>
+        <v>'OKE',</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A360" s="5" t="s">
+      <c r="A360" t="s">
         <v>1068</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -15617,11 +15616,11 @@
       </c>
       <c r="I360" t="str">
         <f t="shared" si="5"/>
-        <v>'ORCL'</v>
+        <v>'ORCL',</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A361" s="5" t="s">
+      <c r="A361" t="s">
         <v>1070</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -15647,11 +15646,11 @@
       </c>
       <c r="I361" t="str">
         <f t="shared" si="5"/>
-        <v>'OGN'</v>
+        <v>'OGN',</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A362" s="5" t="s">
+      <c r="A362" t="s">
         <v>1073</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -15677,11 +15676,11 @@
       </c>
       <c r="I362" t="str">
         <f t="shared" si="5"/>
-        <v>'OTIS'</v>
+        <v>'OTIS',</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A363" s="5" t="s">
+      <c r="A363" t="s">
         <v>1077</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -15707,11 +15706,11 @@
       </c>
       <c r="I363" t="str">
         <f t="shared" si="5"/>
-        <v>'PCAR'</v>
+        <v>'PCAR',</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A364" s="5" t="s">
+      <c r="A364" t="s">
         <v>1080</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -15737,11 +15736,11 @@
       </c>
       <c r="I364" t="str">
         <f t="shared" si="5"/>
-        <v>'PKG'</v>
+        <v>'PKG',</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A365" s="5" t="s">
+      <c r="A365" t="s">
         <v>1082</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -15767,11 +15766,11 @@
       </c>
       <c r="I365" t="str">
         <f t="shared" si="5"/>
-        <v>'PARA'</v>
+        <v>'PARA',</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A366" s="5" t="s">
+      <c r="A366" t="s">
         <v>1085</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -15797,11 +15796,11 @@
       </c>
       <c r="I366" t="str">
         <f t="shared" si="5"/>
-        <v>'PH'</v>
+        <v>'PH',</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A367" s="5" t="s">
+      <c r="A367" t="s">
         <v>1087</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -15827,11 +15826,11 @@
       </c>
       <c r="I367" t="str">
         <f t="shared" si="5"/>
-        <v>'PAYX'</v>
+        <v>'PAYX',</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A368" s="5" t="s">
+      <c r="A368" t="s">
         <v>1090</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -15857,11 +15856,11 @@
       </c>
       <c r="I368" t="str">
         <f t="shared" si="5"/>
-        <v>'PAYC'</v>
+        <v>'PAYC',</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A369" s="5" t="s">
+      <c r="A369" t="s">
         <v>1092</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -15887,11 +15886,11 @@
       </c>
       <c r="I369" t="str">
         <f t="shared" si="5"/>
-        <v>'PYPL'</v>
+        <v>'PYPL',</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A370" s="5" t="s">
+      <c r="A370" t="s">
         <v>1094</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -15917,11 +15916,11 @@
       </c>
       <c r="I370" t="str">
         <f t="shared" si="5"/>
-        <v>'PNR'</v>
+        <v>'PNR',</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A371" s="5" t="s">
+      <c r="A371" t="s">
         <v>1097</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -15947,11 +15946,11 @@
       </c>
       <c r="I371" t="str">
         <f t="shared" si="5"/>
-        <v>'PEP'</v>
+        <v>'PEP',</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A372" s="5" t="s">
+      <c r="A372" t="s">
         <v>1100</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -15977,11 +15976,11 @@
       </c>
       <c r="I372" t="str">
         <f t="shared" si="5"/>
-        <v>'PKI'</v>
+        <v>'PKI',</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A373" s="5" t="s">
+      <c r="A373" t="s">
         <v>1103</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -16007,11 +16006,11 @@
       </c>
       <c r="I373" t="str">
         <f t="shared" si="5"/>
-        <v>'PFE'</v>
+        <v>'PFE',</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A374" s="5" t="s">
+      <c r="A374" t="s">
         <v>1105</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -16037,11 +16036,11 @@
       </c>
       <c r="I374" t="str">
         <f t="shared" si="5"/>
-        <v>'PCG'</v>
+        <v>'PCG',</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A375" s="5" t="s">
+      <c r="A375" t="s">
         <v>1107</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -16067,11 +16066,11 @@
       </c>
       <c r="I375" t="str">
         <f t="shared" si="5"/>
-        <v>'PM'</v>
+        <v>'PM',</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A376" s="5" t="s">
+      <c r="A376" t="s">
         <v>1110</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -16097,11 +16096,11 @@
       </c>
       <c r="I376" t="str">
         <f t="shared" si="5"/>
-        <v>'PSX'</v>
+        <v>'PSX',</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A377" s="5" t="s">
+      <c r="A377" t="s">
         <v>1113</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -16127,11 +16126,11 @@
       </c>
       <c r="I377" t="str">
         <f t="shared" si="5"/>
-        <v>'PNW'</v>
+        <v>'PNW',</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A378" s="5" t="s">
+      <c r="A378" t="s">
         <v>1115</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -16157,11 +16156,11 @@
       </c>
       <c r="I378" t="str">
         <f t="shared" si="5"/>
-        <v>'PXD'</v>
+        <v>'PXD',</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A379" s="5" t="s">
+      <c r="A379" t="s">
         <v>1117</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -16187,11 +16186,11 @@
       </c>
       <c r="I379" t="str">
         <f t="shared" si="5"/>
-        <v>'PNC'</v>
+        <v>'PNC',</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A380" s="5" t="s">
+      <c r="A380" t="s">
         <v>1119</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -16217,11 +16216,11 @@
       </c>
       <c r="I380" t="str">
         <f t="shared" si="5"/>
-        <v>'POOL'</v>
+        <v>'POOL',</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A381" s="5" t="s">
+      <c r="A381" t="s">
         <v>1122</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -16247,11 +16246,11 @@
       </c>
       <c r="I381" t="str">
         <f t="shared" si="5"/>
-        <v>'PPG'</v>
+        <v>'PPG',</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A382" s="5" t="s">
+      <c r="A382" t="s">
         <v>1124</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -16277,11 +16276,11 @@
       </c>
       <c r="I382" t="str">
         <f t="shared" si="5"/>
-        <v>'PPL'</v>
+        <v>'PPL',</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A383" s="5" t="s">
+      <c r="A383" t="s">
         <v>1126</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -16307,11 +16306,11 @@
       </c>
       <c r="I383" t="str">
         <f t="shared" si="5"/>
-        <v>'PFG'</v>
+        <v>'PFG',</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A384" s="5" t="s">
+      <c r="A384" t="s">
         <v>1129</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -16337,11 +16336,11 @@
       </c>
       <c r="I384" t="str">
         <f t="shared" si="5"/>
-        <v>'PG'</v>
+        <v>'PG',</v>
       </c>
     </row>
     <row r="385" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A385" s="5" t="s">
+      <c r="A385" t="s">
         <v>1131</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -16367,11 +16366,11 @@
       </c>
       <c r="I385" t="str">
         <f t="shared" si="5"/>
-        <v>'PGR'</v>
+        <v>'PGR',</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A386" s="5" t="s">
+      <c r="A386" t="s">
         <v>1134</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -16396,12 +16395,12 @@
         <v>1983</v>
       </c>
       <c r="I386" t="str">
-        <f t="shared" ref="I386:I449" si="6">CONCATENATE("'",A386,"'")</f>
-        <v>'PLD'</v>
+        <f t="shared" ref="I386:I449" si="6">CONCATENATE("'",A386,"'",",")</f>
+        <v>'PLD',</v>
       </c>
     </row>
     <row r="387" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A387" s="5" t="s">
+      <c r="A387" t="s">
         <v>1137</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -16427,11 +16426,11 @@
       </c>
       <c r="I387" t="str">
         <f t="shared" si="6"/>
-        <v>'PRU'</v>
+        <v>'PRU',</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A388" s="5" t="s">
+      <c r="A388" t="s">
         <v>1140</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -16457,11 +16456,11 @@
       </c>
       <c r="I388" t="str">
         <f t="shared" si="6"/>
-        <v>'PEG'</v>
+        <v>'PEG',</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A389" s="5" t="s">
+      <c r="A389" t="s">
         <v>1142</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -16487,11 +16486,11 @@
       </c>
       <c r="I389" t="str">
         <f t="shared" si="6"/>
-        <v>'PTC'</v>
+        <v>'PTC',</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A390" s="5" t="s">
+      <c r="A390" t="s">
         <v>1143</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -16517,11 +16516,11 @@
       </c>
       <c r="I390" t="str">
         <f t="shared" si="6"/>
-        <v>'PSA'</v>
+        <v>'PSA',</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A391" s="5" t="s">
+      <c r="A391" t="s">
         <v>1145</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -16547,11 +16546,11 @@
       </c>
       <c r="I391" t="str">
         <f t="shared" si="6"/>
-        <v>'PHM'</v>
+        <v>'PHM',</v>
       </c>
     </row>
     <row r="392" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A392" s="5" t="s">
+      <c r="A392" t="s">
         <v>1147</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -16577,11 +16576,11 @@
       </c>
       <c r="I392" t="str">
         <f t="shared" si="6"/>
-        <v>'QRVO'</v>
+        <v>'QRVO',</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A393" s="5" t="s">
+      <c r="A393" t="s">
         <v>1150</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -16607,11 +16606,11 @@
       </c>
       <c r="I393" t="str">
         <f t="shared" si="6"/>
-        <v>'PWR'</v>
+        <v>'PWR',</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A394" s="5" t="s">
+      <c r="A394" t="s">
         <v>1152</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -16637,11 +16636,11 @@
       </c>
       <c r="I394" t="str">
         <f t="shared" si="6"/>
-        <v>'QCOM'</v>
+        <v>'QCOM',</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A395" s="5" t="s">
+      <c r="A395" t="s">
         <v>1154</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -16667,11 +16666,11 @@
       </c>
       <c r="I395" t="str">
         <f t="shared" si="6"/>
-        <v>'DGX'</v>
+        <v>'DGX',</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A396" s="5" t="s">
+      <c r="A396" t="s">
         <v>1157</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -16697,11 +16696,11 @@
       </c>
       <c r="I396" t="str">
         <f t="shared" si="6"/>
-        <v>'RL'</v>
+        <v>'RL',</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A397" s="5" t="s">
+      <c r="A397" t="s">
         <v>1159</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -16727,11 +16726,11 @@
       </c>
       <c r="I397" t="str">
         <f t="shared" si="6"/>
-        <v>'RJF'</v>
+        <v>'RJF',</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A398" s="5" t="s">
+      <c r="A398" t="s">
         <v>1162</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -16757,11 +16756,11 @@
       </c>
       <c r="I398" t="str">
         <f t="shared" si="6"/>
-        <v>'RTX'</v>
+        <v>'RTX',</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A399" s="5" t="s">
+      <c r="A399" t="s">
         <v>1164</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -16787,11 +16786,11 @@
       </c>
       <c r="I399" t="str">
         <f t="shared" si="6"/>
-        <v>'O'</v>
+        <v>'O',</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A400" s="5" t="s">
+      <c r="A400" t="s">
         <v>1166</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -16817,11 +16816,11 @@
       </c>
       <c r="I400" t="str">
         <f t="shared" si="6"/>
-        <v>'REG'</v>
+        <v>'REG',</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A401" s="5" t="s">
+      <c r="A401" t="s">
         <v>1169</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -16847,11 +16846,11 @@
       </c>
       <c r="I401" t="str">
         <f t="shared" si="6"/>
-        <v>'REGN'</v>
+        <v>'REGN',</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A402" s="5" t="s">
+      <c r="A402" t="s">
         <v>1172</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -16877,11 +16876,11 @@
       </c>
       <c r="I402" t="str">
         <f t="shared" si="6"/>
-        <v>'RF'</v>
+        <v>'RF',</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A403" s="5" t="s">
+      <c r="A403" t="s">
         <v>1175</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -16907,11 +16906,11 @@
       </c>
       <c r="I403" t="str">
         <f t="shared" si="6"/>
-        <v>'RSG'</v>
+        <v>'RSG',</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A404" s="5" t="s">
+      <c r="A404" t="s">
         <v>1179</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -16937,11 +16936,11 @@
       </c>
       <c r="I404" t="str">
         <f t="shared" si="6"/>
-        <v>'RMD'</v>
+        <v>'RMD',</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A405" s="5" t="s">
+      <c r="A405" t="s">
         <v>1181</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -16967,11 +16966,11 @@
       </c>
       <c r="I405" t="str">
         <f t="shared" si="6"/>
-        <v>'RHI'</v>
+        <v>'RHI',</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A406" s="5" t="s">
+      <c r="A406" t="s">
         <v>1183</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -16995,11 +16994,11 @@
       </c>
       <c r="I406" t="str">
         <f t="shared" si="6"/>
-        <v>'ROK'</v>
+        <v>'ROK',</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A407" s="5" t="s">
+      <c r="A407" t="s">
         <v>1185</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -17025,11 +17024,11 @@
       </c>
       <c r="I407" t="str">
         <f t="shared" si="6"/>
-        <v>'ROL'</v>
+        <v>'ROL',</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A408" s="5" t="s">
+      <c r="A408" t="s">
         <v>1187</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -17055,11 +17054,11 @@
       </c>
       <c r="I408" t="str">
         <f t="shared" si="6"/>
-        <v>'ROP'</v>
+        <v>'ROP',</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A409" s="5" t="s">
+      <c r="A409" t="s">
         <v>1190</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -17085,11 +17084,11 @@
       </c>
       <c r="I409" t="str">
         <f t="shared" si="6"/>
-        <v>'ROST'</v>
+        <v>'ROST',</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A410" s="5" t="s">
+      <c r="A410" t="s">
         <v>1194</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -17115,11 +17114,11 @@
       </c>
       <c r="I410" t="str">
         <f t="shared" si="6"/>
-        <v>'RCL'</v>
+        <v>'RCL',</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A411" s="5" t="s">
+      <c r="A411" t="s">
         <v>1196</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -17145,11 +17144,11 @@
       </c>
       <c r="I411" t="str">
         <f t="shared" si="6"/>
-        <v>'SPGI'</v>
+        <v>'SPGI',</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A412" s="5" t="s">
+      <c r="A412" t="s">
         <v>1198</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -17175,11 +17174,11 @@
       </c>
       <c r="I412" t="str">
         <f t="shared" si="6"/>
-        <v>'CRM'</v>
+        <v>'CRM',</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A413" s="5" t="s">
+      <c r="A413" t="s">
         <v>1200</v>
       </c>
       <c r="B413" s="2" t="s">
@@ -17205,11 +17204,11 @@
       </c>
       <c r="I413" t="str">
         <f t="shared" si="6"/>
-        <v>'SBAC'</v>
+        <v>'SBAC',</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A414" s="5" t="s">
+      <c r="A414" t="s">
         <v>1203</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -17235,11 +17234,11 @@
       </c>
       <c r="I414" t="str">
         <f t="shared" si="6"/>
-        <v>'SLB'</v>
+        <v>'SLB',</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A415" s="5" t="s">
+      <c r="A415" t="s">
         <v>1206</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -17265,11 +17264,11 @@
       </c>
       <c r="I415" t="str">
         <f t="shared" si="6"/>
-        <v>'STX'</v>
+        <v>'STX',</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A416" s="5" t="s">
+      <c r="A416" t="s">
         <v>1208</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -17295,11 +17294,11 @@
       </c>
       <c r="I416" t="str">
         <f t="shared" si="6"/>
-        <v>'SEE'</v>
+        <v>'SEE',</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A417" s="5" t="s">
+      <c r="A417" t="s">
         <v>1210</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -17325,11 +17324,11 @@
       </c>
       <c r="I417" t="str">
         <f t="shared" si="6"/>
-        <v>'SRE'</v>
+        <v>'SRE',</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A418" s="5" t="s">
+      <c r="A418" t="s">
         <v>1213</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -17355,11 +17354,11 @@
       </c>
       <c r="I418" t="str">
         <f t="shared" si="6"/>
-        <v>'NOW'</v>
+        <v>'NOW',</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A419" s="5" t="s">
+      <c r="A419" t="s">
         <v>1215</v>
       </c>
       <c r="B419" s="2" t="s">
@@ -17385,11 +17384,11 @@
       </c>
       <c r="I419" t="str">
         <f t="shared" si="6"/>
-        <v>'SHW'</v>
+        <v>'SHW',</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A420" s="5" t="s">
+      <c r="A420" t="s">
         <v>1217</v>
       </c>
       <c r="B420" s="2" t="s">
@@ -17415,11 +17414,11 @@
       </c>
       <c r="I420" t="str">
         <f t="shared" si="6"/>
-        <v>'SPG'</v>
+        <v>'SPG',</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A421" s="5" t="s">
+      <c r="A421" t="s">
         <v>1219</v>
       </c>
       <c r="B421" s="2" t="s">
@@ -17445,11 +17444,11 @@
       </c>
       <c r="I421" t="str">
         <f t="shared" si="6"/>
-        <v>'SWKS'</v>
+        <v>'SWKS',</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A422" s="5" t="s">
+      <c r="A422" t="s">
         <v>1221</v>
       </c>
       <c r="B422" s="2" t="s">
@@ -17475,11 +17474,11 @@
       </c>
       <c r="I422" t="str">
         <f t="shared" si="6"/>
-        <v>'SJM'</v>
+        <v>'SJM',</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A423" s="5" t="s">
+      <c r="A423" t="s">
         <v>1224</v>
       </c>
       <c r="B423" s="2" t="s">
@@ -17505,11 +17504,11 @@
       </c>
       <c r="I423" t="str">
         <f t="shared" si="6"/>
-        <v>'SNA'</v>
+        <v>'SNA',</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A424" s="5" t="s">
+      <c r="A424" t="s">
         <v>1227</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -17535,11 +17534,11 @@
       </c>
       <c r="I424" t="str">
         <f t="shared" si="6"/>
-        <v>'SEDG'</v>
+        <v>'SEDG',</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A425" s="5" t="s">
+      <c r="A425" t="s">
         <v>1230</v>
       </c>
       <c r="B425" s="2" t="s">
@@ -17565,11 +17564,11 @@
       </c>
       <c r="I425" t="str">
         <f t="shared" si="6"/>
-        <v>'SO'</v>
+        <v>'SO',</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A426" s="5" t="s">
+      <c r="A426" t="s">
         <v>1232</v>
       </c>
       <c r="B426" s="2" t="s">
@@ -17595,11 +17594,11 @@
       </c>
       <c r="I426" t="str">
         <f t="shared" si="6"/>
-        <v>'LUV'</v>
+        <v>'LUV',</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A427" s="5" t="s">
+      <c r="A427" t="s">
         <v>1234</v>
       </c>
       <c r="B427" s="2" t="s">
@@ -17625,11 +17624,11 @@
       </c>
       <c r="I427" t="str">
         <f t="shared" si="6"/>
-        <v>'SWK'</v>
+        <v>'SWK',</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A428" s="5" t="s">
+      <c r="A428" t="s">
         <v>1237</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -17655,11 +17654,11 @@
       </c>
       <c r="I428" t="str">
         <f t="shared" si="6"/>
-        <v>'SBUX'</v>
+        <v>'SBUX',</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A429" s="5" t="s">
+      <c r="A429" t="s">
         <v>1239</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -17685,11 +17684,11 @@
       </c>
       <c r="I429" t="str">
         <f t="shared" si="6"/>
-        <v>'STT'</v>
+        <v>'STT',</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A430" s="5" t="s">
+      <c r="A430" t="s">
         <v>1241</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -17715,11 +17714,11 @@
       </c>
       <c r="I430" t="str">
         <f t="shared" si="6"/>
-        <v>'STLD'</v>
+        <v>'STLD',</v>
       </c>
     </row>
     <row r="431" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A431" s="5" t="s">
+      <c r="A431" t="s">
         <v>1244</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -17745,11 +17744,11 @@
       </c>
       <c r="I431" t="str">
         <f t="shared" si="6"/>
-        <v>'STE'</v>
+        <v>'STE',</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A432" s="5" t="s">
+      <c r="A432" t="s">
         <v>1246</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -17775,11 +17774,11 @@
       </c>
       <c r="I432" t="str">
         <f t="shared" si="6"/>
-        <v>'SYK'</v>
+        <v>'SYK',</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A433" s="5" t="s">
+      <c r="A433" t="s">
         <v>1249</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -17805,11 +17804,11 @@
       </c>
       <c r="I433" t="str">
         <f t="shared" si="6"/>
-        <v>'SYF'</v>
+        <v>'SYF',</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A434" s="5" t="s">
+      <c r="A434" t="s">
         <v>1251</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -17835,11 +17834,11 @@
       </c>
       <c r="I434" t="str">
         <f t="shared" si="6"/>
-        <v>'SNPS'</v>
+        <v>'SNPS',</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A435" s="5" t="s">
+      <c r="A435" t="s">
         <v>1253</v>
       </c>
       <c r="B435" s="2" t="s">
@@ -17865,11 +17864,11 @@
       </c>
       <c r="I435" t="str">
         <f t="shared" si="6"/>
-        <v>'SYY'</v>
+        <v>'SYY',</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A436" s="5" t="s">
+      <c r="A436" t="s">
         <v>1256</v>
       </c>
       <c r="B436" s="2" t="s">
@@ -17895,11 +17894,11 @@
       </c>
       <c r="I436" t="str">
         <f t="shared" si="6"/>
-        <v>'TMUS'</v>
+        <v>'TMUS',</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A437" s="5" t="s">
+      <c r="A437" t="s">
         <v>1259</v>
       </c>
       <c r="B437" s="2" t="s">
@@ -17923,11 +17922,11 @@
       </c>
       <c r="I437" t="str">
         <f t="shared" si="6"/>
-        <v>'TROW'</v>
+        <v>'TROW',</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A438" s="5" t="s">
+      <c r="A438" t="s">
         <v>1261</v>
       </c>
       <c r="B438" s="2" t="s">
@@ -17953,11 +17952,11 @@
       </c>
       <c r="I438" t="str">
         <f t="shared" si="6"/>
-        <v>'TTWO'</v>
+        <v>'TTWO',</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A439" s="5" t="s">
+      <c r="A439" t="s">
         <v>1263</v>
       </c>
       <c r="B439" s="2" t="s">
@@ -17983,11 +17982,11 @@
       </c>
       <c r="I439" t="str">
         <f t="shared" si="6"/>
-        <v>'TPR'</v>
+        <v>'TPR',</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A440" s="5" t="s">
+      <c r="A440" t="s">
         <v>1265</v>
       </c>
       <c r="B440" s="2" t="s">
@@ -18013,11 +18012,11 @@
       </c>
       <c r="I440" t="str">
         <f t="shared" si="6"/>
-        <v>'TRGP'</v>
+        <v>'TRGP',</v>
       </c>
     </row>
     <row r="441" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A441" s="5" t="s">
+      <c r="A441" t="s">
         <v>1267</v>
       </c>
       <c r="B441" s="2" t="s">
@@ -18043,11 +18042,11 @@
       </c>
       <c r="I441" t="str">
         <f t="shared" si="6"/>
-        <v>'TGT'</v>
+        <v>'TGT',</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A442" s="5" t="s">
+      <c r="A442" t="s">
         <v>1269</v>
       </c>
       <c r="B442" s="2" t="s">
@@ -18073,11 +18072,11 @@
       </c>
       <c r="I442" t="str">
         <f t="shared" si="6"/>
-        <v>'TEL'</v>
+        <v>'TEL',</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A443" s="5" t="s">
+      <c r="A443" t="s">
         <v>1272</v>
       </c>
       <c r="B443" s="2" t="s">
@@ -18103,11 +18102,11 @@
       </c>
       <c r="I443" t="str">
         <f t="shared" si="6"/>
-        <v>'TDY'</v>
+        <v>'TDY',</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A444" s="5" t="s">
+      <c r="A444" t="s">
         <v>1274</v>
       </c>
       <c r="B444" s="2" t="s">
@@ -18133,11 +18132,11 @@
       </c>
       <c r="I444" t="str">
         <f t="shared" si="6"/>
-        <v>'TFX'</v>
+        <v>'TFX',</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A445" s="5" t="s">
+      <c r="A445" t="s">
         <v>1277</v>
       </c>
       <c r="B445" s="2" t="s">
@@ -18163,11 +18162,11 @@
       </c>
       <c r="I445" t="str">
         <f t="shared" si="6"/>
-        <v>'TER'</v>
+        <v>'TER',</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A446" s="5" t="s">
+      <c r="A446" t="s">
         <v>1280</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -18193,11 +18192,11 @@
       </c>
       <c r="I446" t="str">
         <f t="shared" si="6"/>
-        <v>'TSLA'</v>
+        <v>'TSLA',</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A447" s="5" t="s">
+      <c r="A447" t="s">
         <v>1282</v>
       </c>
       <c r="B447" s="2" t="s">
@@ -18221,11 +18220,11 @@
       </c>
       <c r="I447" t="str">
         <f t="shared" si="6"/>
-        <v>'TXN'</v>
+        <v>'TXN',</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A448" s="5" t="s">
+      <c r="A448" t="s">
         <v>1284</v>
       </c>
       <c r="B448" s="2" t="s">
@@ -18251,11 +18250,11 @@
       </c>
       <c r="I448" t="str">
         <f t="shared" si="6"/>
-        <v>'TXT'</v>
+        <v>'TXT',</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A449" s="5" t="s">
+      <c r="A449" t="s">
         <v>1286</v>
       </c>
       <c r="B449" s="2" t="s">
@@ -18281,11 +18280,11 @@
       </c>
       <c r="I449" t="str">
         <f t="shared" si="6"/>
-        <v>'TMO'</v>
+        <v>'TMO',</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A450" s="5" t="s">
+      <c r="A450" t="s">
         <v>1289</v>
       </c>
       <c r="B450" s="2" t="s">
@@ -18310,12 +18309,12 @@
         <v>1987</v>
       </c>
       <c r="I450" t="str">
-        <f t="shared" ref="I450:I503" si="7">CONCATENATE("'",A450,"'")</f>
-        <v>'TJX'</v>
+        <f t="shared" ref="I450:I503" si="7">CONCATENATE("'",A450,"'",",")</f>
+        <v>'TJX',</v>
       </c>
     </row>
     <row r="451" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A451" s="5" t="s">
+      <c r="A451" t="s">
         <v>1292</v>
       </c>
       <c r="B451" s="2" t="s">
@@ -18341,11 +18340,11 @@
       </c>
       <c r="I451" t="str">
         <f t="shared" si="7"/>
-        <v>'TSCO'</v>
+        <v>'TSCO',</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A452" s="5" t="s">
+      <c r="A452" t="s">
         <v>1295</v>
       </c>
       <c r="B452" s="2" t="s">
@@ -18371,11 +18370,11 @@
       </c>
       <c r="I452" t="str">
         <f t="shared" si="7"/>
-        <v>'TT'</v>
+        <v>'TT',</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A453" s="5" t="s">
+      <c r="A453" t="s">
         <v>1297</v>
       </c>
       <c r="B453" s="2" t="s">
@@ -18401,11 +18400,11 @@
       </c>
       <c r="I453" t="str">
         <f t="shared" si="7"/>
-        <v>'TDG'</v>
+        <v>'TDG',</v>
       </c>
     </row>
     <row r="454" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A454" s="5" t="s">
+      <c r="A454" t="s">
         <v>1299</v>
       </c>
       <c r="B454" s="2" t="s">
@@ -18431,11 +18430,11 @@
       </c>
       <c r="I454" t="str">
         <f t="shared" si="7"/>
-        <v>'TRV'</v>
+        <v>'TRV',</v>
       </c>
     </row>
     <row r="455" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A455" s="5" t="s">
+      <c r="A455" t="s">
         <v>1301</v>
       </c>
       <c r="B455" s="2" t="s">
@@ -18461,11 +18460,11 @@
       </c>
       <c r="I455" t="str">
         <f t="shared" si="7"/>
-        <v>'TRMB'</v>
+        <v>'TRMB',</v>
       </c>
     </row>
     <row r="456" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A456" s="5" t="s">
+      <c r="A456" t="s">
         <v>1304</v>
       </c>
       <c r="B456" s="2" t="s">
@@ -18491,11 +18490,11 @@
       </c>
       <c r="I456" t="str">
         <f t="shared" si="7"/>
-        <v>'TFC'</v>
+        <v>'TFC',</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A457" s="5" t="s">
+      <c r="A457" t="s">
         <v>1306</v>
       </c>
       <c r="B457" s="2" t="s">
@@ -18521,11 +18520,11 @@
       </c>
       <c r="I457" t="str">
         <f t="shared" si="7"/>
-        <v>'TYL'</v>
+        <v>'TYL',</v>
       </c>
     </row>
     <row r="458" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A458" s="5" t="s">
+      <c r="A458" t="s">
         <v>1309</v>
       </c>
       <c r="B458" s="2" t="s">
@@ -18551,11 +18550,11 @@
       </c>
       <c r="I458" t="str">
         <f t="shared" si="7"/>
-        <v>'TSN'</v>
+        <v>'TSN',</v>
       </c>
     </row>
     <row r="459" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A459" s="5" t="s">
+      <c r="A459" t="s">
         <v>1312</v>
       </c>
       <c r="B459" s="2" t="s">
@@ -18579,11 +18578,11 @@
       </c>
       <c r="I459" t="str">
         <f t="shared" si="7"/>
-        <v>'USB'</v>
+        <v>'USB',</v>
       </c>
     </row>
     <row r="460" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A460" s="5" t="s">
+      <c r="A460" t="s">
         <v>1314</v>
       </c>
       <c r="B460" s="2" t="s">
@@ -18609,11 +18608,11 @@
       </c>
       <c r="I460" t="str">
         <f t="shared" si="7"/>
-        <v>'UDR'</v>
+        <v>'UDR',</v>
       </c>
     </row>
     <row r="461" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A461" s="5" t="s">
+      <c r="A461" t="s">
         <v>1317</v>
       </c>
       <c r="B461" s="2" t="s">
@@ -18639,11 +18638,11 @@
       </c>
       <c r="I461" t="str">
         <f t="shared" si="7"/>
-        <v>'ULTA'</v>
+        <v>'ULTA',</v>
       </c>
     </row>
     <row r="462" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A462" s="5" t="s">
+      <c r="A462" t="s">
         <v>1320</v>
       </c>
       <c r="B462" s="2" t="s">
@@ -18669,11 +18668,11 @@
       </c>
       <c r="I462" t="str">
         <f t="shared" si="7"/>
-        <v>'UNP'</v>
+        <v>'UNP',</v>
       </c>
     </row>
     <row r="463" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A463" s="5" t="s">
+      <c r="A463" t="s">
         <v>1322</v>
       </c>
       <c r="B463" s="2" t="s">
@@ -18699,11 +18698,11 @@
       </c>
       <c r="I463" t="str">
         <f t="shared" si="7"/>
-        <v>'UAL'</v>
+        <v>'UAL',</v>
       </c>
     </row>
     <row r="464" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A464" s="5" t="s">
+      <c r="A464" t="s">
         <v>1324</v>
       </c>
       <c r="B464" s="2" t="s">
@@ -18729,11 +18728,11 @@
       </c>
       <c r="I464" t="str">
         <f t="shared" si="7"/>
-        <v>'UPS'</v>
+        <v>'UPS',</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A465" s="5" t="s">
+      <c r="A465" t="s">
         <v>1327</v>
       </c>
       <c r="B465" s="2" t="s">
@@ -18759,11 +18758,11 @@
       </c>
       <c r="I465" t="str">
         <f t="shared" si="7"/>
-        <v>'URI'</v>
+        <v>'URI',</v>
       </c>
     </row>
     <row r="466" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A466" s="5" t="s">
+      <c r="A466" t="s">
         <v>1330</v>
       </c>
       <c r="B466" s="2" t="s">
@@ -18789,11 +18788,11 @@
       </c>
       <c r="I466" t="str">
         <f t="shared" si="7"/>
-        <v>'UNH'</v>
+        <v>'UNH',</v>
       </c>
     </row>
     <row r="467" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A467" s="5" t="s">
+      <c r="A467" t="s">
         <v>1333</v>
       </c>
       <c r="B467" s="2" t="s">
@@ -18819,11 +18818,11 @@
       </c>
       <c r="I467" t="str">
         <f t="shared" si="7"/>
-        <v>'UHS'</v>
+        <v>'UHS',</v>
       </c>
     </row>
     <row r="468" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A468" s="5" t="s">
+      <c r="A468" t="s">
         <v>1336</v>
       </c>
       <c r="B468" s="2" t="s">
@@ -18849,11 +18848,11 @@
       </c>
       <c r="I468" t="str">
         <f t="shared" si="7"/>
-        <v>'VLO'</v>
+        <v>'VLO',</v>
       </c>
     </row>
     <row r="469" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A469" s="5" t="s">
+      <c r="A469" t="s">
         <v>1339</v>
       </c>
       <c r="B469" s="2" t="s">
@@ -18879,11 +18878,11 @@
       </c>
       <c r="I469" t="str">
         <f t="shared" si="7"/>
-        <v>'VTR'</v>
+        <v>'VTR',</v>
       </c>
     </row>
     <row r="470" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A470" s="5" t="s">
+      <c r="A470" t="s">
         <v>1341</v>
       </c>
       <c r="B470" s="2" t="s">
@@ -18909,11 +18908,11 @@
       </c>
       <c r="I470" t="str">
         <f t="shared" si="7"/>
-        <v>'VRSN'</v>
+        <v>'VRSN',</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A471" s="5" t="s">
+      <c r="A471" t="s">
         <v>1344</v>
       </c>
       <c r="B471" s="2" t="s">
@@ -18939,11 +18938,11 @@
       </c>
       <c r="I471" t="str">
         <f t="shared" si="7"/>
-        <v>'VRSK'</v>
+        <v>'VRSK',</v>
       </c>
     </row>
     <row r="472" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A472" s="5" t="s">
+      <c r="A472" t="s">
         <v>1346</v>
       </c>
       <c r="B472" s="2" t="s">
@@ -18969,11 +18968,11 @@
       </c>
       <c r="I472" t="str">
         <f t="shared" si="7"/>
-        <v>'VZ'</v>
+        <v>'VZ',</v>
       </c>
     </row>
     <row r="473" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A473" s="5" t="s">
+      <c r="A473" t="s">
         <v>1349</v>
       </c>
       <c r="B473" s="2" t="s">
@@ -18999,11 +18998,11 @@
       </c>
       <c r="I473" t="str">
         <f t="shared" si="7"/>
-        <v>'VRTX'</v>
+        <v>'VRTX',</v>
       </c>
     </row>
     <row r="474" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A474" s="5" t="s">
+      <c r="A474" t="s">
         <v>1351</v>
       </c>
       <c r="B474" s="2" t="s">
@@ -19029,11 +19028,11 @@
       </c>
       <c r="I474" t="str">
         <f t="shared" si="7"/>
-        <v>'VFC'</v>
+        <v>'VFC',</v>
       </c>
     </row>
     <row r="475" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A475" s="5" t="s">
+      <c r="A475" t="s">
         <v>1353</v>
       </c>
       <c r="B475" s="2" t="s">
@@ -19059,11 +19058,11 @@
       </c>
       <c r="I475" t="str">
         <f t="shared" si="7"/>
-        <v>'VTRS'</v>
+        <v>'VTRS',</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A476" s="5" t="s">
+      <c r="A476" t="s">
         <v>1355</v>
       </c>
       <c r="B476" s="2" t="s">
@@ -19089,11 +19088,11 @@
       </c>
       <c r="I476" t="str">
         <f t="shared" si="7"/>
-        <v>'VICI'</v>
+        <v>'VICI',</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A477" s="5" t="s">
+      <c r="A477" t="s">
         <v>1357</v>
       </c>
       <c r="B477" s="2" t="s">
@@ -19119,11 +19118,11 @@
       </c>
       <c r="I477" t="str">
         <f t="shared" si="7"/>
-        <v>'V'</v>
+        <v>'V',</v>
       </c>
     </row>
     <row r="478" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A478" s="5" t="s">
+      <c r="A478" t="s">
         <v>1359</v>
       </c>
       <c r="B478" s="2" t="s">
@@ -19149,11 +19148,11 @@
       </c>
       <c r="I478" t="str">
         <f t="shared" si="7"/>
-        <v>'VMC'</v>
+        <v>'VMC',</v>
       </c>
     </row>
     <row r="479" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A479" s="5" t="s">
+      <c r="A479" t="s">
         <v>1361</v>
       </c>
       <c r="B479" s="2" t="s">
@@ -19179,11 +19178,11 @@
       </c>
       <c r="I479" t="str">
         <f t="shared" si="7"/>
-        <v>'WAB'</v>
+        <v>'WAB',</v>
       </c>
     </row>
     <row r="480" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A480" s="5" t="s">
+      <c r="A480" t="s">
         <v>1364</v>
       </c>
       <c r="B480" s="2" t="s">
@@ -19209,11 +19208,11 @@
       </c>
       <c r="I480" t="str">
         <f t="shared" si="7"/>
-        <v>'WBA'</v>
+        <v>'WBA',</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A481" s="5" t="s">
+      <c r="A481" t="s">
         <v>1367</v>
       </c>
       <c r="B481" s="2" t="s">
@@ -19239,11 +19238,11 @@
       </c>
       <c r="I481" t="str">
         <f t="shared" si="7"/>
-        <v>'WMT'</v>
+        <v>'WMT',</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A482" s="5" t="s">
+      <c r="A482" t="s">
         <v>1370</v>
       </c>
       <c r="B482" s="2" t="s">
@@ -19269,11 +19268,11 @@
       </c>
       <c r="I482" t="str">
         <f t="shared" si="7"/>
-        <v>'WBD'</v>
+        <v>'WBD',</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A483" s="5" t="s">
+      <c r="A483" t="s">
         <v>1373</v>
       </c>
       <c r="B483" s="2" t="s">
@@ -19297,11 +19296,11 @@
       </c>
       <c r="I483" t="str">
         <f t="shared" si="7"/>
-        <v>'WM'</v>
+        <v>'WM',</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A484" s="5" t="s">
+      <c r="A484" t="s">
         <v>1375</v>
       </c>
       <c r="B484" s="2" t="s">
@@ -19327,11 +19326,11 @@
       </c>
       <c r="I484" t="str">
         <f t="shared" si="7"/>
-        <v>'WAT'</v>
+        <v>'WAT',</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A485" s="5" t="s">
+      <c r="A485" t="s">
         <v>1378</v>
       </c>
       <c r="B485" s="2" t="s">
@@ -19357,11 +19356,11 @@
       </c>
       <c r="I485" t="str">
         <f t="shared" si="7"/>
-        <v>'WEC'</v>
+        <v>'WEC',</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A486" s="5" t="s">
+      <c r="A486" t="s">
         <v>1380</v>
       </c>
       <c r="B486" s="2" t="s">
@@ -19387,11 +19386,11 @@
       </c>
       <c r="I486" t="str">
         <f t="shared" si="7"/>
-        <v>'WFC'</v>
+        <v>'WFC',</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A487" s="5" t="s">
+      <c r="A487" t="s">
         <v>1382</v>
       </c>
       <c r="B487" s="2" t="s">
@@ -19417,11 +19416,11 @@
       </c>
       <c r="I487" t="str">
         <f t="shared" si="7"/>
-        <v>'WELL'</v>
+        <v>'WELL',</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A488" s="5" t="s">
+      <c r="A488" t="s">
         <v>1385</v>
       </c>
       <c r="B488" s="2" t="s">
@@ -19447,11 +19446,11 @@
       </c>
       <c r="I488" t="str">
         <f t="shared" si="7"/>
-        <v>'WST'</v>
+        <v>'WST',</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A489" s="5" t="s">
+      <c r="A489" t="s">
         <v>1388</v>
       </c>
       <c r="B489" s="2" t="s">
@@ -19477,11 +19476,11 @@
       </c>
       <c r="I489" t="str">
         <f t="shared" si="7"/>
-        <v>'WDC'</v>
+        <v>'WDC',</v>
       </c>
     </row>
     <row r="490" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A490" s="5" t="s">
+      <c r="A490" t="s">
         <v>1390</v>
       </c>
       <c r="B490" s="2" t="s">
@@ -19507,11 +19506,11 @@
       </c>
       <c r="I490" t="str">
         <f t="shared" si="7"/>
-        <v>'WRK'</v>
+        <v>'WRK',</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A491" s="5" t="s">
+      <c r="A491" t="s">
         <v>1392</v>
       </c>
       <c r="B491" s="2" t="s">
@@ -19535,11 +19534,11 @@
       </c>
       <c r="I491" t="str">
         <f t="shared" si="7"/>
-        <v>'WY'</v>
+        <v>'WY',</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A492" s="5" t="s">
+      <c r="A492" t="s">
         <v>1395</v>
       </c>
       <c r="B492" s="2" t="s">
@@ -19563,11 +19562,11 @@
       </c>
       <c r="I492" t="str">
         <f t="shared" si="7"/>
-        <v>'WHR'</v>
+        <v>'WHR',</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A493" s="5" t="s">
+      <c r="A493" t="s">
         <v>1399</v>
       </c>
       <c r="B493" s="2" t="s">
@@ -19593,11 +19592,11 @@
       </c>
       <c r="I493" t="str">
         <f t="shared" si="7"/>
-        <v>'WMB'</v>
+        <v>'WMB',</v>
       </c>
     </row>
     <row r="494" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A494" s="5" t="s">
+      <c r="A494" t="s">
         <v>1401</v>
       </c>
       <c r="B494" s="2" t="s">
@@ -19623,11 +19622,11 @@
       </c>
       <c r="I494" t="str">
         <f t="shared" si="7"/>
-        <v>'WTW'</v>
+        <v>'WTW',</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A495" s="5" t="s">
+      <c r="A495" t="s">
         <v>1404</v>
       </c>
       <c r="B495" s="2" t="s">
@@ -19653,11 +19652,11 @@
       </c>
       <c r="I495" t="str">
         <f t="shared" si="7"/>
-        <v>'GWW'</v>
+        <v>'GWW',</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A496" s="5" t="s">
+      <c r="A496" t="s">
         <v>1406</v>
       </c>
       <c r="B496" s="2" t="s">
@@ -19683,11 +19682,11 @@
       </c>
       <c r="I496" t="str">
         <f t="shared" si="7"/>
-        <v>'WYNN'</v>
+        <v>'WYNN',</v>
       </c>
     </row>
     <row r="497" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A497" s="5" t="s">
+      <c r="A497" t="s">
         <v>1408</v>
       </c>
       <c r="B497" s="2" t="s">
@@ -19713,11 +19712,11 @@
       </c>
       <c r="I497" t="str">
         <f t="shared" si="7"/>
-        <v>'XEL'</v>
+        <v>'XEL',</v>
       </c>
     </row>
     <row r="498" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A498" s="5" t="s">
+      <c r="A498" t="s">
         <v>1410</v>
       </c>
       <c r="B498" s="2" t="s">
@@ -19743,11 +19742,11 @@
       </c>
       <c r="I498" t="str">
         <f t="shared" si="7"/>
-        <v>'XYL'</v>
+        <v>'XYL',</v>
       </c>
     </row>
     <row r="499" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A499" s="5" t="s">
+      <c r="A499" t="s">
         <v>1413</v>
       </c>
       <c r="B499" s="2" t="s">
@@ -19773,11 +19772,11 @@
       </c>
       <c r="I499" t="str">
         <f t="shared" si="7"/>
-        <v>'YUM'</v>
+        <v>'YUM',</v>
       </c>
     </row>
     <row r="500" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A500" s="5" t="s">
+      <c r="A500" t="s">
         <v>1415</v>
       </c>
       <c r="B500" s="2" t="s">
@@ -19803,11 +19802,11 @@
       </c>
       <c r="I500" t="str">
         <f t="shared" si="7"/>
-        <v>'ZBRA'</v>
+        <v>'ZBRA',</v>
       </c>
     </row>
     <row r="501" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A501" s="5" t="s">
+      <c r="A501" t="s">
         <v>1417</v>
       </c>
       <c r="B501" s="2" t="s">
@@ -19833,11 +19832,11 @@
       </c>
       <c r="I501" t="str">
         <f t="shared" si="7"/>
-        <v>'ZBH'</v>
+        <v>'ZBH',</v>
       </c>
     </row>
     <row r="502" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A502" s="5" t="s">
+      <c r="A502" t="s">
         <v>1420</v>
       </c>
       <c r="B502" s="2" t="s">
@@ -19863,11 +19862,11 @@
       </c>
       <c r="I502" t="str">
         <f t="shared" si="7"/>
-        <v>'ZION'</v>
+        <v>'ZION',</v>
       </c>
     </row>
     <row r="503" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A503" s="5" t="s">
+      <c r="A503" t="s">
         <v>1422</v>
       </c>
       <c r="B503" s="2" t="s">
@@ -19893,7 +19892,7 @@
       </c>
       <c r="I503" t="str">
         <f t="shared" si="7"/>
-        <v>'ZTS'</v>
+        <v>'ZTS',</v>
       </c>
     </row>
   </sheetData>
